--- a/finish/43/final.xlsx
+++ b/finish/43/final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUTC-IR\Desktop\irweb\IR2\finish\43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE50BCA-3CAD-4BE9-8168-FCA6B99C5147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7113BA56-0159-4679-B515-FA44BD76EFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1005" windowWidth="24420" windowHeight="13755" xr2:uid="{1B769D7F-0799-4642-A7F5-86811CB37C0B}"/>
   </bookViews>
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D433D116-92A0-6640-824B-AD1BD6E21A25}">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="L274" sqref="L274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1508,14 +1508,15 @@
         <v>11</v>
       </c>
       <c r="E2" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6">
-        <v>9</v>
+        <f>(H2-E2)</f>
+        <v>8</v>
       </c>
       <c r="G2" s="7">
         <f>(E2/H2)*100</f>
-        <v>84.210526315789465</v>
+        <v>85.964912280701753</v>
       </c>
       <c r="H2" s="6">
         <v>57</v>
@@ -1538,10 +1539,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
+        <f t="shared" ref="F3:F66" si="0">(H3-E3)</f>
         <v>52</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G66" si="0">(E3/H3)*100</f>
+        <f t="shared" ref="G3:G66" si="1">(E3/H3)*100</f>
         <v>0</v>
       </c>
       <c r="H3" s="6">
@@ -1565,10 +1567,11 @@
         <v>2</v>
       </c>
       <c r="F4" s="6">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5087719298245612</v>
       </c>
       <c r="H4" s="6">
@@ -1589,14 +1592,15 @@
         <v>14</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>13.043478260869565</v>
+        <f t="shared" si="1"/>
+        <v>15.217391304347828</v>
       </c>
       <c r="H5" s="6">
         <v>46</v>
@@ -1619,10 +1623,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="6">
@@ -1646,10 +1651,11 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="H7" s="6">
@@ -1673,10 +1679,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="6">
@@ -1700,10 +1707,11 @@
         <v>10</v>
       </c>
       <c r="F9" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H9" s="6">
@@ -1727,10 +1735,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="6">
@@ -1754,10 +1763,11 @@
         <v>19</v>
       </c>
       <c r="F11" s="6">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.186046511627907</v>
       </c>
       <c r="H11" s="6">
@@ -1778,14 +1788,15 @@
         <v>23</v>
       </c>
       <c r="E12" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>78.723404255319153</v>
+        <f t="shared" si="1"/>
+        <v>85.106382978723403</v>
       </c>
       <c r="H12" s="6">
         <v>47</v>
@@ -1808,10 +1819,11 @@
         <v>41</v>
       </c>
       <c r="F13" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.181818181818173</v>
       </c>
       <c r="H13" s="6">
@@ -1835,10 +1847,11 @@
         <v>44</v>
       </c>
       <c r="F14" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.61702127659575</v>
       </c>
       <c r="H14" s="6">
@@ -1859,14 +1872,15 @@
         <v>26</v>
       </c>
       <c r="E15" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>67.441860465116278</v>
+        <f t="shared" si="1"/>
+        <v>69.767441860465112</v>
       </c>
       <c r="H15" s="6">
         <v>43</v>
@@ -1889,10 +1903,11 @@
         <v>29</v>
       </c>
       <c r="F16" s="6">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.441860465116278</v>
       </c>
       <c r="H16" s="6">
@@ -1916,10 +1931,11 @@
         <v>42</v>
       </c>
       <c r="F17" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.361702127659569</v>
       </c>
       <c r="H17" s="6">
@@ -1940,14 +1956,15 @@
         <v>29</v>
       </c>
       <c r="E18" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="6">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
-        <v>75.675675675675677</v>
+        <f t="shared" si="1"/>
+        <v>78.378378378378372</v>
       </c>
       <c r="H18" s="6">
         <v>37</v>
@@ -1970,10 +1987,11 @@
         <v>12</v>
       </c>
       <c r="F19" s="6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.076923076923077</v>
       </c>
       <c r="H19" s="6">
@@ -1997,10 +2015,11 @@
         <v>3</v>
       </c>
       <c r="F20" s="6">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8823529411764701</v>
       </c>
       <c r="H20" s="6">
@@ -2024,10 +2043,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="6">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="6">
@@ -2051,10 +2071,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="6">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="6">
@@ -2078,10 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F23" s="6">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.518518518518519</v>
       </c>
       <c r="H23" s="6">
@@ -2105,10 +2127,11 @@
         <v>1</v>
       </c>
       <c r="F24" s="6">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7857142857142856</v>
       </c>
       <c r="H24" s="6">
@@ -2132,10 +2155,11 @@
         <v>0</v>
       </c>
       <c r="F25" s="6">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="6">
@@ -2159,10 +2183,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="6">
@@ -2186,10 +2211,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="6">
@@ -2213,10 +2239,11 @@
         <v>37</v>
       </c>
       <c r="F28" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="H28" s="6">
@@ -2237,14 +2264,15 @@
         <v>46</v>
       </c>
       <c r="E29" s="6">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F29" s="6">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
-        <v>46.341463414634148</v>
+        <f t="shared" si="1"/>
+        <v>85.365853658536579</v>
       </c>
       <c r="H29" s="6">
         <v>41</v>
@@ -2267,10 +2295,11 @@
         <v>0</v>
       </c>
       <c r="F30" s="6">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="6">
@@ -2291,14 +2320,15 @@
         <v>48</v>
       </c>
       <c r="E31" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F31" s="6">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
-        <v>7.3170731707317067</v>
+        <f t="shared" si="1"/>
+        <v>26.829268292682929</v>
       </c>
       <c r="H31" s="6">
         <v>41</v>
@@ -2321,10 +2351,11 @@
         <v>21</v>
       </c>
       <c r="F32" s="6">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.837209302325576</v>
       </c>
       <c r="H32" s="6">
@@ -2348,10 +2379,11 @@
         <v>8</v>
       </c>
       <c r="F33" s="6">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.047619047619047</v>
       </c>
       <c r="H33" s="6">
@@ -2375,10 +2407,11 @@
         <v>5</v>
       </c>
       <c r="F34" s="6">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.904761904761903</v>
       </c>
       <c r="H34" s="6">
@@ -2402,10 +2435,11 @@
         <v>37</v>
       </c>
       <c r="F35" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.095238095238088</v>
       </c>
       <c r="H35" s="6">
@@ -2429,10 +2463,11 @@
         <v>16</v>
       </c>
       <c r="F36" s="6">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.363636363636367</v>
       </c>
       <c r="H36" s="6">
@@ -2453,14 +2488,15 @@
         <v>55</v>
       </c>
       <c r="E37" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" s="6">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="0"/>
-        <v>29.268292682926827</v>
+        <f t="shared" si="1"/>
+        <v>34.146341463414636</v>
       </c>
       <c r="H37" s="6">
         <v>41</v>
@@ -2480,14 +2516,15 @@
         <v>56</v>
       </c>
       <c r="E38" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="6">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="0"/>
-        <v>62.222222222222221</v>
+        <f t="shared" si="1"/>
+        <v>64.444444444444443</v>
       </c>
       <c r="H38" s="6">
         <v>45</v>
@@ -2510,10 +2547,11 @@
         <v>5</v>
       </c>
       <c r="F39" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.428571428571431</v>
       </c>
       <c r="H39" s="6">
@@ -2537,10 +2575,11 @@
         <v>0</v>
       </c>
       <c r="F40" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="6">
@@ -2564,10 +2603,11 @@
         <v>31</v>
       </c>
       <c r="F41" s="6">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.454545454545453</v>
       </c>
       <c r="H41" s="6">
@@ -2591,10 +2631,11 @@
         <v>1</v>
       </c>
       <c r="F42" s="6">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="H42" s="6">
@@ -2618,10 +2659,11 @@
         <v>22</v>
       </c>
       <c r="F43" s="6">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.658536585365859</v>
       </c>
       <c r="H43" s="6">
@@ -2645,10 +2687,11 @@
         <v>41</v>
       </c>
       <c r="F44" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.61904761904762</v>
       </c>
       <c r="H44" s="6">
@@ -2672,10 +2715,11 @@
         <v>32</v>
       </c>
       <c r="F45" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.19047619047619</v>
       </c>
       <c r="H45" s="6">
@@ -2696,14 +2740,15 @@
         <v>65</v>
       </c>
       <c r="E46" s="6">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F46" s="6">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="0"/>
-        <v>21.951219512195124</v>
+        <f t="shared" si="1"/>
+        <v>68.292682926829272</v>
       </c>
       <c r="H46" s="6">
         <v>41</v>
@@ -2726,10 +2771,11 @@
         <v>33</v>
       </c>
       <c r="F47" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.058823529411768</v>
       </c>
       <c r="H47" s="6">
@@ -2750,14 +2796,15 @@
         <v>67</v>
       </c>
       <c r="E48" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F48" s="6">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="0"/>
-        <v>94.871794871794862</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="H48" s="6">
         <v>39</v>
@@ -2777,14 +2824,15 @@
         <v>69</v>
       </c>
       <c r="E49" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F49" s="6">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="0"/>
-        <v>28.888888888888886</v>
+        <f t="shared" si="1"/>
+        <v>33.333333333333329</v>
       </c>
       <c r="H49" s="6">
         <v>45</v>
@@ -2807,10 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F50" s="6">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.276595744680851</v>
       </c>
       <c r="H50" s="6">
@@ -2834,10 +2883,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="6">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" s="6">
@@ -2861,10 +2911,11 @@
         <v>4</v>
       </c>
       <c r="F52" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H52" s="6">
@@ -2888,10 +2939,11 @@
         <v>2</v>
       </c>
       <c r="F53" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
       <c r="H53" s="6">
@@ -2915,10 +2967,11 @@
         <v>1</v>
       </c>
       <c r="F54" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
       <c r="H54" s="6">
@@ -2939,14 +2992,15 @@
         <v>78</v>
       </c>
       <c r="E55" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" s="6">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="0"/>
-        <v>75.510204081632651</v>
+        <f t="shared" si="1"/>
+        <v>77.551020408163268</v>
       </c>
       <c r="H55" s="6">
         <v>49</v>
@@ -2966,14 +3020,15 @@
         <v>79</v>
       </c>
       <c r="E56" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F56" s="6">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="0"/>
-        <v>35.416666666666671</v>
+        <f t="shared" si="1"/>
+        <v>39.583333333333329</v>
       </c>
       <c r="H56" s="6">
         <v>48</v>
@@ -2996,10 +3051,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="6">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H57" s="6">
@@ -3023,10 +3079,11 @@
         <v>36</v>
       </c>
       <c r="F58" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.59574468085107</v>
       </c>
       <c r="H58" s="6">
@@ -3047,14 +3104,15 @@
         <v>83</v>
       </c>
       <c r="E59" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="6">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="0"/>
-        <v>14.285714285714285</v>
+        <f t="shared" si="1"/>
+        <v>21.428571428571427</v>
       </c>
       <c r="H59" s="6">
         <v>14</v>
@@ -3077,10 +3135,11 @@
         <v>49</v>
       </c>
       <c r="F60" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H60" s="6">
@@ -3104,10 +3163,11 @@
         <v>4</v>
       </c>
       <c r="F61" s="6">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5106382978723403</v>
       </c>
       <c r="H61" s="6">
@@ -3131,10 +3191,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="6">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H62" s="6">
@@ -3155,14 +3216,15 @@
         <v>88</v>
       </c>
       <c r="E63" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F63" s="6">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="0"/>
-        <v>81.395348837209298</v>
+        <f t="shared" si="1"/>
+        <v>86.04651162790698</v>
       </c>
       <c r="H63" s="6">
         <v>43</v>
@@ -3185,10 +3247,11 @@
         <v>0</v>
       </c>
       <c r="F64" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H64" s="6">
@@ -3212,10 +3275,11 @@
         <v>4</v>
       </c>
       <c r="F65" s="6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="H65" s="8">
@@ -3239,10 +3303,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="6">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H66" s="8">
@@ -3266,10 +3331,11 @@
         <v>25</v>
       </c>
       <c r="F67" s="6">
+        <f t="shared" ref="F67:F130" si="2">(H67-E67)</f>
         <v>16</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" ref="G67:G130" si="1">(E67/H67)*100</f>
+        <f t="shared" ref="G67:G130" si="3">(E67/H67)*100</f>
         <v>60.975609756097562</v>
       </c>
       <c r="H67" s="8">
@@ -3293,10 +3359,11 @@
         <v>13</v>
       </c>
       <c r="F68" s="6">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.659574468085108</v>
       </c>
       <c r="H68" s="8">
@@ -3317,14 +3384,15 @@
         <v>94</v>
       </c>
       <c r="E69" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="6">
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="1"/>
-        <v>6.1224489795918364</v>
+        <f t="shared" si="3"/>
+        <v>8.1632653061224492</v>
       </c>
       <c r="H69" s="8">
         <v>49</v>
@@ -3344,14 +3412,15 @@
         <v>95</v>
       </c>
       <c r="E70" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="6">
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="1"/>
-        <v>1.7543859649122806</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H70" s="8">
         <v>57</v>
@@ -3374,10 +3443,11 @@
         <v>3</v>
       </c>
       <c r="F71" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H71" s="6">
@@ -3401,10 +3471,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H72" s="6">
@@ -3428,10 +3499,11 @@
         <v>0</v>
       </c>
       <c r="F73" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H73" s="6">
@@ -3455,10 +3527,11 @@
         <v>21</v>
       </c>
       <c r="F74" s="6">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42.857142857142854</v>
       </c>
       <c r="H74" s="6">
@@ -3482,10 +3555,11 @@
         <v>8</v>
       </c>
       <c r="F75" s="6">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.777777777777779</v>
       </c>
       <c r="H75" s="6">
@@ -3509,10 +3583,11 @@
         <v>1</v>
       </c>
       <c r="F76" s="6">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H76" s="6">
@@ -3536,10 +3611,11 @@
         <v>22</v>
       </c>
       <c r="F77" s="6">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.833333333333329</v>
       </c>
       <c r="H77" s="6">
@@ -3560,14 +3636,15 @@
         <v>105</v>
       </c>
       <c r="E78" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F78" s="6">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="1"/>
-        <v>92.592592592592595</v>
+        <f t="shared" si="3"/>
+        <v>94.444444444444443</v>
       </c>
       <c r="H78" s="6">
         <v>54</v>
@@ -3587,14 +3664,15 @@
         <v>106</v>
       </c>
       <c r="E79" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F79" s="6">
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="1"/>
-        <v>50.980392156862742</v>
+        <f t="shared" si="3"/>
+        <v>60.784313725490193</v>
       </c>
       <c r="H79" s="6">
         <v>51</v>
@@ -3617,10 +3695,11 @@
         <v>15</v>
       </c>
       <c r="F80" s="6">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88.235294117647058</v>
       </c>
       <c r="H80" s="6">
@@ -3644,10 +3723,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H81" s="6">
@@ -3671,10 +3751,11 @@
         <v>0</v>
       </c>
       <c r="F82" s="6">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H82" s="6">
@@ -3698,10 +3779,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H83" s="6">
@@ -3725,10 +3807,11 @@
         <v>23</v>
       </c>
       <c r="F84" s="6">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.818181818181813</v>
       </c>
       <c r="H84" s="6">
@@ -3752,10 +3835,11 @@
         <v>5</v>
       </c>
       <c r="F85" s="6">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.6206896551724146</v>
       </c>
       <c r="H85" s="6">
@@ -3779,10 +3863,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="6">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H86" s="6">
@@ -3806,10 +3891,11 @@
         <v>0</v>
       </c>
       <c r="F87" s="6">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H87" s="6">
@@ -3833,10 +3919,11 @@
         <v>2</v>
       </c>
       <c r="F88" s="6">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
       <c r="H88" s="6">
@@ -3860,10 +3947,11 @@
         <v>0</v>
       </c>
       <c r="F89" s="6">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H89" s="6">
@@ -3887,10 +3975,11 @@
         <v>0</v>
       </c>
       <c r="F90" s="6">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="6">
@@ -3914,10 +4003,11 @@
         <v>16</v>
       </c>
       <c r="F91" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H91" s="6">
@@ -3941,10 +4031,11 @@
         <v>0</v>
       </c>
       <c r="F92" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H92" s="6">
@@ -3968,10 +4059,11 @@
         <v>23</v>
       </c>
       <c r="F93" s="6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85.18518518518519</v>
       </c>
       <c r="H93" s="6">
@@ -3992,14 +4084,15 @@
         <v>127</v>
       </c>
       <c r="E94" s="6">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F94" s="6">
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="1"/>
-        <v>27.659574468085108</v>
+        <f t="shared" si="3"/>
+        <v>65.957446808510639</v>
       </c>
       <c r="H94" s="6">
         <v>47</v>
@@ -4022,10 +4115,11 @@
         <v>3</v>
       </c>
       <c r="F95" s="6">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1224489795918364</v>
       </c>
       <c r="H95" s="6">
@@ -4049,10 +4143,11 @@
         <v>14</v>
       </c>
       <c r="F96" s="6">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28.571428571428569</v>
       </c>
       <c r="H96" s="6">
@@ -4076,10 +4171,11 @@
         <v>29</v>
       </c>
       <c r="F97" s="6">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69.047619047619051</v>
       </c>
       <c r="H97" s="6">
@@ -4103,10 +4199,11 @@
         <v>0</v>
       </c>
       <c r="F98" s="6">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H98" s="6">
@@ -4127,14 +4224,15 @@
         <v>132</v>
       </c>
       <c r="E99" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="6">
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="1"/>
-        <v>19.148936170212767</v>
+        <f t="shared" si="3"/>
+        <v>21.276595744680851</v>
       </c>
       <c r="H99" s="6">
         <v>47</v>
@@ -4157,10 +4255,11 @@
         <v>43</v>
       </c>
       <c r="F100" s="6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91.489361702127653</v>
       </c>
       <c r="H100" s="6">
@@ -4184,10 +4283,11 @@
         <v>23</v>
       </c>
       <c r="F101" s="6">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="H101" s="6">
@@ -4211,10 +4311,11 @@
         <v>46</v>
       </c>
       <c r="F102" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97.872340425531917</v>
       </c>
       <c r="H102" s="6">
@@ -4235,14 +4336,15 @@
         <v>137</v>
       </c>
       <c r="E103" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F103" s="6">
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="1"/>
-        <v>36.363636363636367</v>
+        <f t="shared" si="3"/>
+        <v>38.181818181818187</v>
       </c>
       <c r="H103" s="6">
         <v>55</v>
@@ -4265,10 +4367,11 @@
         <v>20</v>
       </c>
       <c r="F104" s="6">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.816326530612244</v>
       </c>
       <c r="H104" s="6">
@@ -4292,10 +4395,11 @@
         <v>28</v>
       </c>
       <c r="F105" s="6">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75.675675675675677</v>
       </c>
       <c r="H105" s="6">
@@ -4319,10 +4423,11 @@
         <v>45</v>
       </c>
       <c r="F106" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H106" s="6">
@@ -4346,10 +4451,11 @@
         <v>7</v>
       </c>
       <c r="F107" s="6">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.000000000000002</v>
       </c>
       <c r="H107" s="6">
@@ -4373,10 +4479,11 @@
         <v>17</v>
       </c>
       <c r="F108" s="6">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.476190476190474</v>
       </c>
       <c r="H108" s="6">
@@ -4397,14 +4504,15 @@
         <v>145</v>
       </c>
       <c r="E109" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F109" s="6">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>62.5</v>
       </c>
       <c r="H109" s="6">
         <v>40</v>
@@ -4427,10 +4535,11 @@
         <v>37</v>
       </c>
       <c r="F110" s="6">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.723404255319153</v>
       </c>
       <c r="H110" s="6">
@@ -4454,10 +4563,11 @@
         <v>0</v>
       </c>
       <c r="F111" s="6">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H111" s="6">
@@ -4481,10 +4591,11 @@
         <v>44</v>
       </c>
       <c r="F112" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97.777777777777771</v>
       </c>
       <c r="H112" s="6">
@@ -4505,14 +4616,15 @@
         <v>150</v>
       </c>
       <c r="E113" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F113" s="6">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="1"/>
-        <v>71.739130434782609</v>
+        <f t="shared" si="3"/>
+        <v>73.91304347826086</v>
       </c>
       <c r="H113" s="6">
         <v>46</v>
@@ -4532,14 +4644,15 @@
         <v>151</v>
       </c>
       <c r="E114" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" s="6">
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1276595744680851</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H114" s="6">
         <v>47</v>
@@ -4559,14 +4672,15 @@
         <v>152</v>
       </c>
       <c r="E115" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F115" s="6">
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="1"/>
-        <v>44.186046511627907</v>
+        <f t="shared" si="3"/>
+        <v>46.511627906976742</v>
       </c>
       <c r="H115" s="6">
         <v>43</v>
@@ -4589,10 +4703,11 @@
         <v>0</v>
       </c>
       <c r="F116" s="6">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H116" s="6">
@@ -4616,10 +4731,11 @@
         <v>0</v>
       </c>
       <c r="F117" s="6">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G117" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H117" s="6">
@@ -4643,10 +4759,11 @@
         <v>0</v>
       </c>
       <c r="F118" s="6">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H118" s="6">
@@ -4670,10 +4787,11 @@
         <v>0</v>
       </c>
       <c r="F119" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H119" s="6">
@@ -4697,10 +4815,11 @@
         <v>4</v>
       </c>
       <c r="F120" s="6">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.333333333333329</v>
       </c>
       <c r="H120" s="6">
@@ -4724,10 +4843,11 @@
         <v>0</v>
       </c>
       <c r="F121" s="6">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H121" s="6">
@@ -4751,10 +4871,11 @@
         <v>0</v>
       </c>
       <c r="F122" s="6">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H122" s="6">
@@ -4778,10 +4899,11 @@
         <v>36</v>
       </c>
       <c r="F123" s="6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87.804878048780495</v>
       </c>
       <c r="H123" s="6">
@@ -4805,10 +4927,11 @@
         <v>3</v>
       </c>
       <c r="F124" s="6">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="H124" s="6">
@@ -4832,10 +4955,11 @@
         <v>34</v>
       </c>
       <c r="F125" s="6">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="H125" s="6">
@@ -4859,10 +4983,11 @@
         <v>31</v>
       </c>
       <c r="F126" s="6">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73.80952380952381</v>
       </c>
       <c r="H126" s="6">
@@ -4886,10 +5011,11 @@
         <v>0</v>
       </c>
       <c r="F127" s="6">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H127" s="6">
@@ -4913,10 +5039,11 @@
         <v>37</v>
       </c>
       <c r="F128" s="6">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84.090909090909093</v>
       </c>
       <c r="H128" s="6">
@@ -4940,10 +5067,11 @@
         <v>34</v>
       </c>
       <c r="F129" s="6">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82.926829268292678</v>
       </c>
       <c r="H129" s="6">
@@ -4967,10 +5095,11 @@
         <v>22</v>
       </c>
       <c r="F130" s="6">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G130" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.380952380952387</v>
       </c>
       <c r="H130" s="6">
@@ -4994,10 +5123,11 @@
         <v>3</v>
       </c>
       <c r="F131" s="6">
+        <f t="shared" ref="F131:F194" si="4">(H131-E131)</f>
         <v>46</v>
       </c>
       <c r="G131" s="7">
-        <f t="shared" ref="G131:G194" si="2">(E131/H131)*100</f>
+        <f t="shared" ref="G131:G194" si="5">(E131/H131)*100</f>
         <v>6.1224489795918364</v>
       </c>
       <c r="H131" s="6">
@@ -5018,14 +5148,15 @@
         <v>316</v>
       </c>
       <c r="E132" s="6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F132" s="6">
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="G132" s="7">
-        <f t="shared" si="2"/>
-        <v>60.465116279069761</v>
+        <f t="shared" si="5"/>
+        <v>86.04651162790698</v>
       </c>
       <c r="H132" s="6">
         <v>43</v>
@@ -5048,10 +5179,11 @@
         <v>19</v>
       </c>
       <c r="F133" s="6">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G133" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>65.517241379310349</v>
       </c>
       <c r="H133" s="6">
@@ -5075,10 +5207,11 @@
         <v>14</v>
       </c>
       <c r="F134" s="6">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G134" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45.161290322580641</v>
       </c>
       <c r="H134" s="6">
@@ -5102,10 +5235,11 @@
         <v>1</v>
       </c>
       <c r="F135" s="6">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="G135" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="H135" s="6">
@@ -5129,10 +5263,11 @@
         <v>0</v>
       </c>
       <c r="F136" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H136" s="6">
@@ -5156,10 +5291,11 @@
         <v>1</v>
       </c>
       <c r="F137" s="6">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G137" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H137" s="6">
@@ -5183,10 +5319,11 @@
         <v>0</v>
       </c>
       <c r="F138" s="6">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G138" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H138" s="6">
@@ -5210,10 +5347,11 @@
         <v>0</v>
       </c>
       <c r="F139" s="6">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G139" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H139" s="6">
@@ -5237,10 +5375,11 @@
         <v>0</v>
       </c>
       <c r="F140" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G140" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H140" s="6">
@@ -5264,10 +5403,11 @@
         <v>0</v>
       </c>
       <c r="F141" s="6">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G141" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H141" s="6">
@@ -5291,10 +5431,11 @@
         <v>0</v>
       </c>
       <c r="F142" s="6">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H142" s="6">
@@ -5315,14 +5456,15 @@
         <v>181</v>
       </c>
       <c r="E143" s="6">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F143" s="6">
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="G143" s="7">
-        <f t="shared" si="2"/>
-        <v>29.166666666666668</v>
+        <f t="shared" si="5"/>
+        <v>64.583333333333343</v>
       </c>
       <c r="H143" s="6">
         <v>48</v>
@@ -5342,14 +5484,15 @@
         <v>182</v>
       </c>
       <c r="E144" s="6">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F144" s="6">
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="G144" s="7">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
+        <f t="shared" si="5"/>
+        <v>88.888888888888886</v>
       </c>
       <c r="H144" s="6">
         <v>45</v>
@@ -5372,10 +5515,11 @@
         <v>21</v>
       </c>
       <c r="F145" s="6">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G145" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44.680851063829785</v>
       </c>
       <c r="H145" s="6">
@@ -5396,14 +5540,15 @@
         <v>183</v>
       </c>
       <c r="E146" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F146" s="6">
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" si="2"/>
-        <v>54.347826086956516</v>
+        <f t="shared" si="5"/>
+        <v>58.695652173913047</v>
       </c>
       <c r="H146" s="6">
         <v>46</v>
@@ -5426,10 +5571,11 @@
         <v>33</v>
       </c>
       <c r="F147" s="6">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G147" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>82.5</v>
       </c>
       <c r="H147" s="6">
@@ -5453,10 +5599,11 @@
         <v>49</v>
       </c>
       <c r="F148" s="6">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G148" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>90.740740740740748</v>
       </c>
       <c r="H148" s="6">
@@ -5480,10 +5627,11 @@
         <v>29</v>
       </c>
       <c r="F149" s="6">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G149" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>63.04347826086957</v>
       </c>
       <c r="H149" s="6">
@@ -5507,10 +5655,11 @@
         <v>12</v>
       </c>
       <c r="F150" s="6">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.428571428571427</v>
       </c>
       <c r="H150" s="6">
@@ -5531,14 +5680,15 @@
         <v>188</v>
       </c>
       <c r="E151" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F151" s="6">
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="2"/>
-        <v>7.1428571428571423</v>
+        <f t="shared" si="5"/>
+        <v>10.714285714285714</v>
       </c>
       <c r="H151" s="6">
         <v>56</v>
@@ -5561,10 +5711,11 @@
         <v>0</v>
       </c>
       <c r="F152" s="6">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G152" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H152" s="6">
@@ -5588,10 +5739,11 @@
         <v>0</v>
       </c>
       <c r="F153" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H153" s="6">
@@ -5615,10 +5767,11 @@
         <v>0</v>
       </c>
       <c r="F154" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H154" s="6">
@@ -5642,10 +5795,11 @@
         <v>4</v>
       </c>
       <c r="F155" s="6">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>26.666666666666668</v>
       </c>
       <c r="H155" s="6">
@@ -5669,10 +5823,11 @@
         <v>0</v>
       </c>
       <c r="F156" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G156" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H156" s="6">
@@ -5696,10 +5851,11 @@
         <v>42</v>
       </c>
       <c r="F157" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G157" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H157" s="6">
@@ -5723,10 +5879,11 @@
         <v>43</v>
       </c>
       <c r="F158" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H158" s="6">
@@ -5747,14 +5904,15 @@
         <v>199</v>
       </c>
       <c r="E159" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F159" s="6">
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G159" s="7">
-        <f t="shared" si="2"/>
-        <v>43.902439024390247</v>
+        <f t="shared" si="5"/>
+        <v>46.341463414634148</v>
       </c>
       <c r="H159" s="6">
         <v>41</v>
@@ -5777,10 +5935,11 @@
         <v>31</v>
       </c>
       <c r="F160" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G160" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96.875</v>
       </c>
       <c r="H160" s="6">
@@ -5801,14 +5960,15 @@
         <v>202</v>
       </c>
       <c r="E161" s="6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F161" s="6">
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="G161" s="7">
-        <f t="shared" si="2"/>
-        <v>32.558139534883722</v>
+        <f t="shared" si="5"/>
+        <v>58.139534883720934</v>
       </c>
       <c r="H161" s="6">
         <v>43</v>
@@ -5828,14 +5988,15 @@
         <v>203</v>
       </c>
       <c r="E162" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F162" s="6">
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" si="2"/>
-        <v>58.536585365853654</v>
+        <f t="shared" si="5"/>
+        <v>60.975609756097562</v>
       </c>
       <c r="H162" s="6">
         <v>41</v>
@@ -5858,10 +6019,11 @@
         <v>29</v>
       </c>
       <c r="F163" s="6">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G163" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>82.857142857142861</v>
       </c>
       <c r="H163" s="6">
@@ -5885,10 +6047,11 @@
         <v>0</v>
       </c>
       <c r="F164" s="6">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="G164" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H164" s="6">
@@ -5909,14 +6072,15 @@
         <v>206</v>
       </c>
       <c r="E165" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F165" s="6">
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="G165" s="7">
-        <f t="shared" si="2"/>
-        <v>24.390243902439025</v>
+        <f t="shared" si="5"/>
+        <v>29.268292682926827</v>
       </c>
       <c r="H165" s="6">
         <v>41</v>
@@ -5936,14 +6100,15 @@
         <v>209</v>
       </c>
       <c r="E166" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F166" s="6">
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" si="2"/>
-        <v>13.333333333333334</v>
+        <f t="shared" si="5"/>
+        <v>22.222222222222221</v>
       </c>
       <c r="H166" s="6">
         <v>45</v>
@@ -5963,14 +6128,15 @@
         <v>210</v>
       </c>
       <c r="E167" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F167" s="6">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="G167" s="7">
-        <f t="shared" si="2"/>
-        <v>68.75</v>
+        <f t="shared" si="5"/>
+        <v>70.833333333333343</v>
       </c>
       <c r="H167" s="6">
         <v>48</v>
@@ -5993,10 +6159,11 @@
         <v>7</v>
       </c>
       <c r="F168" s="6">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="G168" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17.073170731707318</v>
       </c>
       <c r="H168" s="6">
@@ -6017,14 +6184,15 @@
         <v>213</v>
       </c>
       <c r="E169" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F169" s="6">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="G169" s="7">
-        <f t="shared" si="2"/>
-        <v>65.909090909090907</v>
+        <f t="shared" si="5"/>
+        <v>72.727272727272734</v>
       </c>
       <c r="H169" s="6">
         <v>44</v>
@@ -6044,14 +6212,15 @@
         <v>214</v>
       </c>
       <c r="E170" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F170" s="6">
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="G170" s="7">
-        <f t="shared" si="2"/>
-        <v>40.909090909090914</v>
+        <f t="shared" si="5"/>
+        <v>43.18181818181818</v>
       </c>
       <c r="H170" s="6">
         <v>44</v>
@@ -6074,10 +6243,11 @@
         <v>12</v>
       </c>
       <c r="F171" s="6">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="G171" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.33898305084746</v>
       </c>
       <c r="H171" s="6">
@@ -6101,10 +6271,11 @@
         <v>34</v>
       </c>
       <c r="F172" s="6">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G172" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>80.952380952380949</v>
       </c>
       <c r="H172" s="6">
@@ -6128,10 +6299,11 @@
         <v>0</v>
       </c>
       <c r="F173" s="6">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G173" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H173" s="6">
@@ -6155,10 +6327,11 @@
         <v>0</v>
       </c>
       <c r="F174" s="6">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H174" s="6">
@@ -6182,10 +6355,11 @@
         <v>0</v>
       </c>
       <c r="F175" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G175" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H175" s="6">
@@ -6209,10 +6383,11 @@
         <v>48</v>
       </c>
       <c r="F176" s="6">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G176" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>85.714285714285708</v>
       </c>
       <c r="H176" s="6">
@@ -6236,10 +6411,11 @@
         <v>0</v>
       </c>
       <c r="F177" s="6">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G177" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H177" s="6">
@@ -6260,14 +6436,15 @@
         <v>224</v>
       </c>
       <c r="E178" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F178" s="6">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="G178" s="7">
-        <f t="shared" si="2"/>
-        <v>71.698113207547166</v>
+        <f t="shared" si="5"/>
+        <v>73.584905660377359</v>
       </c>
       <c r="H178" s="6">
         <v>53</v>
@@ -6290,10 +6467,11 @@
         <v>53</v>
       </c>
       <c r="F179" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G179" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H179" s="6">
@@ -6317,10 +6495,11 @@
         <v>43</v>
       </c>
       <c r="F180" s="6">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G180" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>89.583333333333343</v>
       </c>
       <c r="H180" s="6">
@@ -6341,14 +6520,15 @@
         <v>228</v>
       </c>
       <c r="E181" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F181" s="6">
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="G181" s="7">
-        <f t="shared" si="2"/>
-        <v>53.191489361702125</v>
+        <f t="shared" si="5"/>
+        <v>55.319148936170215</v>
       </c>
       <c r="H181" s="6">
         <v>47</v>
@@ -6371,10 +6551,11 @@
         <v>0</v>
       </c>
       <c r="F182" s="6">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="G182" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H182" s="6">
@@ -6395,14 +6576,15 @@
         <v>230</v>
       </c>
       <c r="E183" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F183" s="6">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="G183" s="7">
-        <f t="shared" si="2"/>
-        <v>68.181818181818173</v>
+        <f t="shared" si="5"/>
+        <v>70.454545454545453</v>
       </c>
       <c r="H183" s="6">
         <v>44</v>
@@ -6425,10 +6607,11 @@
         <v>32</v>
       </c>
       <c r="F184" s="6">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G184" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60.377358490566039</v>
       </c>
       <c r="H184" s="6">
@@ -6452,10 +6635,11 @@
         <v>43</v>
       </c>
       <c r="F185" s="6">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G185" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74.137931034482762</v>
       </c>
       <c r="H185" s="6">
@@ -6476,14 +6660,15 @@
         <v>234</v>
       </c>
       <c r="E186" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F186" s="6">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="G186" s="7">
-        <f t="shared" si="2"/>
-        <v>48.275862068965516</v>
+        <f t="shared" si="5"/>
+        <v>53.448275862068961</v>
       </c>
       <c r="H186" s="6">
         <v>58</v>
@@ -6506,10 +6691,11 @@
         <v>0</v>
       </c>
       <c r="F187" s="6">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G187" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H187" s="6">
@@ -6533,10 +6719,11 @@
         <v>23</v>
       </c>
       <c r="F188" s="6">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G188" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>54.761904761904766</v>
       </c>
       <c r="H188" s="6">
@@ -6560,10 +6747,11 @@
         <v>40</v>
       </c>
       <c r="F189" s="6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G189" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>95.238095238095227</v>
       </c>
       <c r="H189" s="6">
@@ -6584,14 +6772,15 @@
         <v>239</v>
       </c>
       <c r="E190" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F190" s="6">
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="G190" s="7">
-        <f t="shared" si="2"/>
-        <v>58.536585365853654</v>
+        <f t="shared" si="5"/>
+        <v>60.975609756097562</v>
       </c>
       <c r="H190" s="6">
         <v>41</v>
@@ -6614,10 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F191" s="6">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="G191" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.641025641025639</v>
       </c>
       <c r="H191" s="6">
@@ -6641,10 +6831,11 @@
         <v>41</v>
       </c>
       <c r="F192" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G192" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H192" s="6">
@@ -6668,10 +6859,11 @@
         <v>36</v>
       </c>
       <c r="F193" s="6">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G193" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>87.804878048780495</v>
       </c>
       <c r="H193" s="6">
@@ -6695,10 +6887,11 @@
         <v>38</v>
       </c>
       <c r="F194" s="6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G194" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="H194" s="6">
@@ -6722,10 +6915,11 @@
         <v>19</v>
       </c>
       <c r="F195" s="6">
+        <f t="shared" ref="F195:F258" si="6">(H195-E195)</f>
         <v>23</v>
       </c>
       <c r="G195" s="7">
-        <f t="shared" ref="G195:G258" si="3">(E195/H195)*100</f>
+        <f t="shared" ref="G195:G258" si="7">(E195/H195)*100</f>
         <v>45.238095238095241</v>
       </c>
       <c r="H195" s="6">
@@ -6749,10 +6943,11 @@
         <v>19</v>
       </c>
       <c r="F196" s="6">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="G196" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>51.351351351351347</v>
       </c>
       <c r="H196" s="6">
@@ -6773,14 +6968,15 @@
         <v>247</v>
       </c>
       <c r="E197" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F197" s="6">
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="G197" s="7">
-        <f t="shared" si="3"/>
-        <v>43.478260869565219</v>
+        <f t="shared" si="7"/>
+        <v>45.652173913043477</v>
       </c>
       <c r="H197" s="8">
         <v>46</v>
@@ -6803,10 +6999,11 @@
         <v>42</v>
       </c>
       <c r="F198" s="6">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G198" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>97.674418604651152</v>
       </c>
       <c r="H198" s="9">
@@ -6830,10 +7027,11 @@
         <v>40</v>
       </c>
       <c r="F199" s="6">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G199" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>88.888888888888886</v>
       </c>
       <c r="H199" s="9">
@@ -6857,10 +7055,11 @@
         <v>15</v>
       </c>
       <c r="F200" s="6">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G200" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.585365853658537</v>
       </c>
       <c r="H200" s="9">
@@ -6884,10 +7083,11 @@
         <v>0</v>
       </c>
       <c r="F201" s="6">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="G201" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H201" s="9">
@@ -6911,10 +7111,11 @@
         <v>0</v>
       </c>
       <c r="F202" s="6">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G202" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H202" s="9">
@@ -6938,10 +7139,11 @@
         <v>0</v>
       </c>
       <c r="F203" s="6">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G203" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H203" s="9">
@@ -6965,10 +7167,11 @@
         <v>0</v>
       </c>
       <c r="F204" s="6">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G204" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H204" s="8">
@@ -6992,10 +7195,11 @@
         <v>51</v>
       </c>
       <c r="F205" s="6">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G205" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>98.076923076923066</v>
       </c>
       <c r="H205" s="6">
@@ -7019,10 +7223,11 @@
         <v>49</v>
       </c>
       <c r="F206" s="6">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G206" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>92.452830188679243</v>
       </c>
       <c r="H206" s="6">
@@ -7043,14 +7248,15 @@
         <v>259</v>
       </c>
       <c r="E207" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F207" s="6">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="G207" s="7">
-        <f t="shared" si="3"/>
-        <v>60.784313725490193</v>
+        <f t="shared" si="7"/>
+        <v>62.745098039215684</v>
       </c>
       <c r="H207" s="6">
         <v>51</v>
@@ -7070,14 +7276,15 @@
         <v>260</v>
       </c>
       <c r="E208" s="6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F208" s="6">
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G208" s="7">
-        <f t="shared" si="3"/>
-        <v>89.090909090909093</v>
+        <f t="shared" si="7"/>
+        <v>92.72727272727272</v>
       </c>
       <c r="H208" s="6">
         <v>55</v>
@@ -7100,10 +7307,11 @@
         <v>26</v>
       </c>
       <c r="F209" s="6">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="G209" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>53.061224489795919</v>
       </c>
       <c r="H209" s="6">
@@ -7127,10 +7335,11 @@
         <v>40</v>
       </c>
       <c r="F210" s="6">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G210" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>74.074074074074076</v>
       </c>
       <c r="H210" s="6">
@@ -7154,10 +7363,11 @@
         <v>0</v>
       </c>
       <c r="F211" s="6">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="G211" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H211" s="6">
@@ -7178,14 +7388,15 @@
         <v>264</v>
       </c>
       <c r="E212" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F212" s="6">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G212" s="7">
-        <f t="shared" si="3"/>
-        <v>90.196078431372555</v>
+        <f t="shared" si="7"/>
+        <v>92.156862745098039</v>
       </c>
       <c r="H212" s="6">
         <v>51</v>
@@ -7208,10 +7419,11 @@
         <v>1</v>
       </c>
       <c r="F213" s="6">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="G213" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7027027027027026</v>
       </c>
       <c r="H213" s="6">
@@ -7232,14 +7444,15 @@
         <v>12</v>
       </c>
       <c r="E214" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F214" s="6">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="G214" s="7">
-        <f t="shared" si="3"/>
-        <v>56.25</v>
+        <f t="shared" si="7"/>
+        <v>68.75</v>
       </c>
       <c r="H214" s="6">
         <v>32</v>
@@ -7262,10 +7475,11 @@
         <v>2</v>
       </c>
       <c r="F215" s="6">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="G215" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.6511627906976747</v>
       </c>
       <c r="H215" s="6">
@@ -7286,14 +7500,15 @@
         <v>31</v>
       </c>
       <c r="E216" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F216" s="6">
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
       <c r="G216" s="7">
-        <f t="shared" si="3"/>
-        <v>9.7560975609756095</v>
+        <f t="shared" si="7"/>
+        <v>7.3170731707317067</v>
       </c>
       <c r="H216" s="6">
         <v>41</v>
@@ -7313,14 +7528,15 @@
         <v>32</v>
       </c>
       <c r="E217" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F217" s="6">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="G217" s="7">
-        <f t="shared" si="3"/>
-        <v>64.444444444444443</v>
+        <f t="shared" si="7"/>
+        <v>68.888888888888886</v>
       </c>
       <c r="H217" s="6">
         <v>45</v>
@@ -7343,10 +7559,11 @@
         <v>8</v>
       </c>
       <c r="F218" s="6">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="G218" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.326530612244898</v>
       </c>
       <c r="H218" s="6">
@@ -7370,10 +7587,11 @@
         <v>2</v>
       </c>
       <c r="F219" s="6">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="G219" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="H219" s="6">
@@ -7397,10 +7615,11 @@
         <v>3</v>
       </c>
       <c r="F220" s="6">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="G220" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.8947368421052628</v>
       </c>
       <c r="H220" s="6">
@@ -7424,10 +7643,11 @@
         <v>0</v>
       </c>
       <c r="F221" s="6">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="G221" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H221" s="6">
@@ -7451,10 +7671,11 @@
         <v>0</v>
       </c>
       <c r="F222" s="6">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="G222" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H222" s="6">
@@ -7478,10 +7699,11 @@
         <v>0</v>
       </c>
       <c r="F223" s="6">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="G223" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H223" s="6">
@@ -7505,10 +7727,11 @@
         <v>30</v>
       </c>
       <c r="F224" s="6">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G224" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>96.774193548387103</v>
       </c>
       <c r="H224" s="6">
@@ -7532,10 +7755,11 @@
         <v>18</v>
       </c>
       <c r="F225" s="6">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G225" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>56.25</v>
       </c>
       <c r="H225" s="6">
@@ -7559,10 +7783,11 @@
         <v>8</v>
       </c>
       <c r="F226" s="6">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="G226" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.222222222222221</v>
       </c>
       <c r="H226" s="6">
@@ -7583,14 +7808,15 @@
         <v>101</v>
       </c>
       <c r="E227" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F227" s="6">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="G227" s="7">
-        <f t="shared" si="3"/>
-        <v>23.333333333333332</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="H227" s="6">
         <v>30</v>
@@ -7610,14 +7836,15 @@
         <v>102</v>
       </c>
       <c r="E228" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F228" s="6">
-        <v>24</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="G228" s="7">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="H228" s="6">
         <v>30</v>
@@ -7640,10 +7867,11 @@
         <v>8</v>
       </c>
       <c r="F229" s="6">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="G229" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.222222222222221</v>
       </c>
       <c r="H229" s="6">
@@ -7667,10 +7895,11 @@
         <v>33</v>
       </c>
       <c r="F230" s="6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G230" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="H230" s="6">
@@ -7691,14 +7920,15 @@
         <v>105</v>
       </c>
       <c r="E231" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F231" s="6">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="G231" s="7">
-        <f t="shared" si="3"/>
-        <v>73.91304347826086</v>
+        <f t="shared" si="7"/>
+        <v>76.08695652173914</v>
       </c>
       <c r="H231" s="6">
         <v>46</v>
@@ -7721,10 +7951,11 @@
         <v>0</v>
       </c>
       <c r="F232" s="6">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="G232" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H232" s="6">
@@ -7745,14 +7976,15 @@
         <v>113</v>
       </c>
       <c r="E233" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F233" s="6">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="G233" s="7">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>67.5</v>
       </c>
       <c r="H233" s="6">
         <v>40</v>
@@ -7772,14 +8004,15 @@
         <v>114</v>
       </c>
       <c r="E234" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F234" s="6">
-        <v>33</v>
+        <f t="shared" si="6"/>
+        <v>31</v>
       </c>
       <c r="G234" s="7">
-        <f t="shared" si="3"/>
-        <v>17.5</v>
+        <f t="shared" si="7"/>
+        <v>22.5</v>
       </c>
       <c r="H234" s="6">
         <v>40</v>
@@ -7802,10 +8035,11 @@
         <v>3</v>
       </c>
       <c r="F235" s="6">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G235" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.9767441860465116</v>
       </c>
       <c r="H235" s="6">
@@ -7829,10 +8063,11 @@
         <v>0</v>
       </c>
       <c r="F236" s="6">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G236" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H236" s="6">
@@ -7856,10 +8091,11 @@
         <v>0</v>
       </c>
       <c r="F237" s="6">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="G237" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H237" s="6">
@@ -7883,10 +8119,11 @@
         <v>4</v>
       </c>
       <c r="F238" s="6">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="G238" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="H238" s="6">
@@ -7910,10 +8147,11 @@
         <v>0</v>
       </c>
       <c r="F239" s="6">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="G239" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H239" s="6">
@@ -7937,10 +8175,11 @@
         <v>0</v>
       </c>
       <c r="F240" s="6">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G240" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H240" s="6">
@@ -7961,14 +8200,15 @@
         <v>131</v>
       </c>
       <c r="E241" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F241" s="6">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>39</v>
       </c>
       <c r="G241" s="7">
-        <f t="shared" si="3"/>
-        <v>6.9767441860465116</v>
+        <f t="shared" si="7"/>
+        <v>9.3023255813953494</v>
       </c>
       <c r="H241" s="6">
         <v>43</v>
@@ -7991,10 +8231,11 @@
         <v>0</v>
       </c>
       <c r="F242" s="6">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G242" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H242" s="6">
@@ -8015,14 +8256,15 @@
         <v>133</v>
       </c>
       <c r="E243" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F243" s="6">
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="G243" s="7">
-        <f t="shared" si="3"/>
-        <v>8.1081081081081088</v>
+        <f t="shared" si="7"/>
+        <v>10.810810810810811</v>
       </c>
       <c r="H243" s="6">
         <v>37</v>
@@ -8045,10 +8287,11 @@
         <v>7</v>
       </c>
       <c r="F244" s="6">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G244" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.925925925925924</v>
       </c>
       <c r="H244" s="6">
@@ -8072,10 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F245" s="6">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="G245" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>43.478260869565219</v>
       </c>
       <c r="H245" s="6">
@@ -8096,14 +8340,15 @@
         <v>149</v>
       </c>
       <c r="E246" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F246" s="6">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="G246" s="7">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090917</v>
+        <f t="shared" si="7"/>
+        <v>3.0303030303030303</v>
       </c>
       <c r="H246" s="6">
         <v>33</v>
@@ -8126,10 +8371,11 @@
         <v>5</v>
       </c>
       <c r="F247" s="6">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G247" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="H247" s="6">
@@ -8150,14 +8396,15 @@
         <v>151</v>
       </c>
       <c r="E248" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F248" s="6">
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>41</v>
       </c>
       <c r="G248" s="7">
-        <f t="shared" si="3"/>
-        <v>4.5454545454545459</v>
+        <f t="shared" si="7"/>
+        <v>6.8181818181818175</v>
       </c>
       <c r="H248" s="6">
         <v>44</v>
@@ -8180,10 +8427,11 @@
         <v>0</v>
       </c>
       <c r="F249" s="6">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G249" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H249" s="6">
@@ -8204,14 +8452,15 @@
         <v>153</v>
       </c>
       <c r="E250" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" s="6">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="G250" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.5714285714285712</v>
       </c>
       <c r="H250" s="6">
         <v>28</v>
@@ -8234,10 +8483,11 @@
         <v>2</v>
       </c>
       <c r="F251" s="6">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="G251" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="H251" s="6">
@@ -8258,14 +8508,15 @@
         <v>172</v>
       </c>
       <c r="E252" s="6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F252" s="6">
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G252" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>97.222222222222214</v>
       </c>
       <c r="H252" s="6">
         <v>36</v>
@@ -8285,14 +8536,15 @@
         <v>173</v>
       </c>
       <c r="E253" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F253" s="6">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="G253" s="7">
-        <f t="shared" si="3"/>
-        <v>61.904761904761905</v>
+        <f t="shared" si="7"/>
+        <v>66.666666666666657</v>
       </c>
       <c r="H253" s="6">
         <v>42</v>
@@ -8312,14 +8564,15 @@
         <v>185</v>
       </c>
       <c r="E254" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F254" s="6">
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
       <c r="G254" s="7">
-        <f t="shared" si="3"/>
-        <v>18.421052631578945</v>
+        <f t="shared" si="7"/>
+        <v>23.684210526315788</v>
       </c>
       <c r="H254" s="6">
         <v>38</v>
@@ -8339,14 +8592,15 @@
         <v>186</v>
       </c>
       <c r="E255" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F255" s="6">
-        <v>32</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G255" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>87.5</v>
       </c>
       <c r="H255" s="6">
         <v>32</v>
@@ -8369,10 +8623,11 @@
         <v>15</v>
       </c>
       <c r="F256" s="6">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="G256" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.25</v>
       </c>
       <c r="H256" s="6">
@@ -8396,10 +8651,11 @@
         <v>0</v>
       </c>
       <c r="F257" s="6">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G257" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H257" s="6">
@@ -8423,10 +8679,11 @@
         <v>30</v>
       </c>
       <c r="F258" s="6">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G258" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>96.774193548387103</v>
       </c>
       <c r="H258" s="6">
@@ -8447,14 +8704,15 @@
         <v>229</v>
       </c>
       <c r="E259" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F259" s="6">
-        <v>47</v>
+        <f t="shared" ref="F259:F304" si="8">(H259-E259)</f>
+        <v>46</v>
       </c>
       <c r="G259" s="7">
-        <f t="shared" ref="G259:G304" si="4">(E259/H259)*100</f>
-        <v>7.8431372549019605</v>
+        <f t="shared" ref="G259:G304" si="9">(E259/H259)*100</f>
+        <v>9.8039215686274517</v>
       </c>
       <c r="H259" s="6">
         <v>51</v>
@@ -8477,10 +8735,11 @@
         <v>0</v>
       </c>
       <c r="F260" s="6">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="G260" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H260" s="6">
@@ -8504,10 +8763,11 @@
         <v>0</v>
       </c>
       <c r="F261" s="6">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G261" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H261" s="6">
@@ -8531,10 +8791,11 @@
         <v>0</v>
       </c>
       <c r="F262" s="6">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G262" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H262" s="6">
@@ -8558,10 +8819,11 @@
         <v>0</v>
       </c>
       <c r="F263" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G263" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H263" s="6">
@@ -8585,10 +8847,11 @@
         <v>0</v>
       </c>
       <c r="F264" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G264" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H264" s="6">
@@ -8612,10 +8875,11 @@
         <v>0</v>
       </c>
       <c r="F265" s="6">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="G265" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H265" s="6">
@@ -8639,10 +8903,11 @@
         <v>1</v>
       </c>
       <c r="F266" s="6">
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="G266" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="H266" s="6">
@@ -8663,14 +8928,15 @@
         <v>276</v>
       </c>
       <c r="E267" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F267" s="6">
-        <v>47</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
       <c r="G267" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>14.893617021276595</v>
       </c>
       <c r="H267" s="6">
         <v>47</v>
@@ -8693,10 +8959,11 @@
         <v>0</v>
       </c>
       <c r="F268" s="6">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G268" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H268" s="6">
@@ -8720,10 +8987,11 @@
         <v>0</v>
       </c>
       <c r="F269" s="6">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="G269" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H269" s="6">
@@ -8747,10 +9015,11 @@
         <v>0</v>
       </c>
       <c r="F270" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G270" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H270" s="6">
@@ -8774,10 +9043,11 @@
         <v>0</v>
       </c>
       <c r="F271" s="6">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="G271" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H271" s="6">
@@ -8801,10 +9071,11 @@
         <v>0</v>
       </c>
       <c r="F272" s="6">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G272" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H272" s="6">
@@ -8828,10 +9099,11 @@
         <v>0</v>
       </c>
       <c r="F273" s="6">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G273" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H273" s="6">
@@ -8855,10 +9127,11 @@
         <v>0</v>
       </c>
       <c r="F274" s="6">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G274" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H274" s="6">
@@ -8882,10 +9155,11 @@
         <v>0</v>
       </c>
       <c r="F275" s="6">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G275" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H275" s="6">
@@ -8909,10 +9183,11 @@
         <v>0</v>
       </c>
       <c r="F276" s="6">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G276" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H276" s="6">
@@ -8936,10 +9211,11 @@
         <v>0</v>
       </c>
       <c r="F277" s="6">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G277" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H277" s="6">
@@ -8963,10 +9239,11 @@
         <v>0</v>
       </c>
       <c r="F278" s="6">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G278" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H278" s="6">
@@ -8990,10 +9267,11 @@
         <v>0</v>
       </c>
       <c r="F279" s="6">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G279" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H279" s="5">
@@ -9017,10 +9295,11 @@
         <v>0</v>
       </c>
       <c r="F280" s="6">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G280" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H280" s="5">
@@ -9044,10 +9323,11 @@
         <v>0</v>
       </c>
       <c r="F281" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G281" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H281" s="5">
@@ -9071,10 +9351,11 @@
         <v>0</v>
       </c>
       <c r="F282" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G282" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H282" s="5">
@@ -9098,10 +9379,11 @@
         <v>0</v>
       </c>
       <c r="F283" s="6">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G283" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H283" s="5">
@@ -9125,10 +9407,11 @@
         <v>0</v>
       </c>
       <c r="F284" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G284" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H284" s="5">
@@ -9152,10 +9435,11 @@
         <v>0</v>
       </c>
       <c r="F285" s="6">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G285" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H285" s="5">
@@ -9179,10 +9463,11 @@
         <v>0</v>
       </c>
       <c r="F286" s="6">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G286" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H286" s="5">
@@ -9206,10 +9491,11 @@
         <v>0</v>
       </c>
       <c r="F287" s="6">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G287" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H287" s="5">
@@ -9233,10 +9519,11 @@
         <v>0</v>
       </c>
       <c r="F288" s="6">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G288" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H288" s="5">
@@ -9260,10 +9547,11 @@
         <v>0</v>
       </c>
       <c r="F289" s="6">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G289" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H289" s="5">
@@ -9287,10 +9575,11 @@
         <v>1</v>
       </c>
       <c r="F290" s="6">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G290" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.125</v>
       </c>
       <c r="H290" s="5">
@@ -9314,10 +9603,11 @@
         <v>0</v>
       </c>
       <c r="F291" s="6">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G291" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H291" s="5">
@@ -9341,10 +9631,11 @@
         <v>0</v>
       </c>
       <c r="F292" s="6">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G292" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H292" s="6">
@@ -9368,10 +9659,11 @@
         <v>0</v>
       </c>
       <c r="F293" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G293" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H293" s="6">
@@ -9395,10 +9687,11 @@
         <v>0</v>
       </c>
       <c r="F294" s="6">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="G294" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H294" s="6">
@@ -9419,14 +9712,15 @@
         <v>300</v>
       </c>
       <c r="E295" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295" s="6">
-        <v>41</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
       <c r="G295" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2.4390243902439024</v>
       </c>
       <c r="H295" s="6">
         <v>41</v>
@@ -9449,10 +9743,11 @@
         <v>0</v>
       </c>
       <c r="F296" s="6">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G296" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H296" s="6">
@@ -9476,10 +9771,11 @@
         <v>0</v>
       </c>
       <c r="F297" s="6">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G297" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H297" s="6">
@@ -9503,10 +9799,11 @@
         <v>0</v>
       </c>
       <c r="F298" s="6">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G298" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H298" s="6">
@@ -9530,10 +9827,11 @@
         <v>0</v>
       </c>
       <c r="F299" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G299" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H299" s="6">
@@ -9557,10 +9855,11 @@
         <v>0</v>
       </c>
       <c r="F300" s="6">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G300" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H300" s="6">
@@ -9584,10 +9883,11 @@
         <v>0</v>
       </c>
       <c r="F301" s="6">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="G301" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H301" s="6">
@@ -9611,10 +9911,11 @@
         <v>0</v>
       </c>
       <c r="F302" s="6">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G302" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H302" s="6">
@@ -9638,10 +9939,11 @@
         <v>0</v>
       </c>
       <c r="F303" s="6">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G303" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H303" s="6">
@@ -9665,10 +9967,11 @@
         <v>0</v>
       </c>
       <c r="F304" s="6">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G304" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H304" s="6">

--- a/finish/43/final.xlsx
+++ b/finish/43/final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUTC-IR\Desktop\irweb\IR2\finish\43\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUTC-IR\Desktop\irweb\ir12\finish\43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7113BA56-0159-4679-B515-FA44BD76EFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364425F-1841-48F2-B532-E718875B4674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1005" windowWidth="24420" windowHeight="13755" xr2:uid="{1B769D7F-0799-4642-A7F5-86811CB37C0B}"/>
   </bookViews>
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D433D116-92A0-6640-824B-AD1BD6E21A25}">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="L274" sqref="L274"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1511,6 @@
         <v>49</v>
       </c>
       <c r="F2" s="6">
-        <f>(H2-E2)</f>
         <v>8</v>
       </c>
       <c r="G2" s="7">
@@ -1539,11 +1538,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F66" si="0">(H3-E3)</f>
         <v>52</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G66" si="1">(E3/H3)*100</f>
+        <f t="shared" ref="G3:G66" si="0">(E3/H3)*100</f>
         <v>0</v>
       </c>
       <c r="H3" s="6">
@@ -1567,11 +1565,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="6">
+        <v>55</v>
+      </c>
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="1"/>
         <v>3.5087719298245612</v>
       </c>
       <c r="H4" s="6">
@@ -1595,11 +1592,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="6">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
         <v>15.217391304347828</v>
       </c>
       <c r="H5" s="6">
@@ -1623,11 +1619,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="6">
@@ -1651,11 +1646,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="H7" s="6">
@@ -1679,11 +1673,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="6">
@@ -1707,3597 +1700,3468 @@
         <v>10</v>
       </c>
       <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>44.186046511627907</v>
+      </c>
+      <c r="H11" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>85.106382978723403</v>
+      </c>
+      <c r="H12" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="H13" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>93.61702127659575</v>
+      </c>
+      <c r="H14" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>69.767441860465112</v>
+      </c>
+      <c r="H15" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>67.441860465116278</v>
+      </c>
+      <c r="H16" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>89.361702127659569</v>
+      </c>
+      <c r="H17" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6">
+        <v>29</v>
+      </c>
+      <c r="F18" s="6">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>78.378378378378372</v>
+      </c>
+      <c r="H18" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="H19" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="H20" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="H23" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>55</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="H24" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="6">
+        <v>37</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="H28" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="6">
+        <v>36</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>87.804878048780495</v>
+      </c>
+      <c r="H29" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>38</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="6">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6">
+        <v>27</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>34.146341463414636</v>
+      </c>
+      <c r="H31" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="6">
+        <v>21</v>
+      </c>
+      <c r="F32" s="6">
+        <v>22</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>48.837209302325576</v>
+      </c>
+      <c r="H32" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="6">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6">
+        <v>34</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="H33" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>37</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>11.904761904761903</v>
+      </c>
+      <c r="H34" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6">
+        <v>37</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>88.095238095238088</v>
+      </c>
+      <c r="H35" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="6">
+        <v>16</v>
+      </c>
+      <c r="F36" s="6">
+        <v>28</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="H36" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="6">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6">
+        <v>27</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>34.146341463414636</v>
+      </c>
+      <c r="H37" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="6">
+        <v>29</v>
+      </c>
+      <c r="F38" s="6">
+        <v>16</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>64.444444444444443</v>
+      </c>
+      <c r="H38" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="H39" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="6">
+        <v>31</v>
+      </c>
+      <c r="F41" s="6">
+        <v>13</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>70.454545454545453</v>
+      </c>
+      <c r="H41" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>44</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H42" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="6">
+        <v>23</v>
+      </c>
+      <c r="F43" s="6">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>56.09756097560976</v>
+      </c>
+      <c r="H43" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="6">
+        <v>41</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="0"/>
+        <v>97.61904761904762</v>
+      </c>
+      <c r="H44" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="6">
+        <v>32</v>
+      </c>
+      <c r="F45" s="6">
+        <v>10</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="H45" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="6">
+        <v>28</v>
+      </c>
+      <c r="F46" s="6">
+        <v>13</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>68.292682926829272</v>
+      </c>
+      <c r="H46" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="6">
+        <v>33</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>97.058823529411768</v>
+      </c>
+      <c r="H47" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="6">
+        <v>39</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H48" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="6">
+        <v>15</v>
+      </c>
+      <c r="F49" s="6">
+        <v>30</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H49" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="6">
+        <v>10</v>
+      </c>
+      <c r="F50" s="6">
+        <v>37</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="0"/>
+        <v>21.276595744680851</v>
+      </c>
+      <c r="H50" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>46</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4</v>
+      </c>
+      <c r="F52" s="6">
+        <v>4</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H52" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="6">
+        <v>38</v>
+      </c>
+      <c r="F55" s="6">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="0"/>
+        <v>77.551020408163268</v>
+      </c>
+      <c r="H55" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="6">
+        <v>19</v>
+      </c>
+      <c r="F56" s="6">
+        <v>29</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="0"/>
+        <v>39.583333333333329</v>
+      </c>
+      <c r="H56" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>55</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="6">
+        <v>36</v>
+      </c>
+      <c r="F58" s="6">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="0"/>
+        <v>76.59574468085107</v>
+      </c>
+      <c r="H58" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="6">
+        <v>3</v>
+      </c>
+      <c r="F59" s="6">
+        <v>11</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="0"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="H59" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="6">
+        <v>49</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H60" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="6">
+        <v>4</v>
+      </c>
+      <c r="F61" s="6">
+        <v>43</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5106382978723403</v>
+      </c>
+      <c r="H61" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>39</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="6">
+        <v>37</v>
+      </c>
+      <c r="F63" s="6">
+        <v>6</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="0"/>
+        <v>86.04651162790698</v>
+      </c>
+      <c r="H63" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>10</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="6">
+        <v>4</v>
+      </c>
+      <c r="F65" s="6">
+        <v>40</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="H65" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>53</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="6">
+        <v>25</v>
+      </c>
+      <c r="F67" s="6">
+        <v>16</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" ref="G67:G130" si="1">(E67/H67)*100</f>
+        <v>60.975609756097562</v>
+      </c>
+      <c r="H67" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="6">
+        <v>13</v>
+      </c>
+      <c r="F68" s="6">
+        <v>34</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="1"/>
+        <v>27.659574468085108</v>
+      </c>
+      <c r="H68" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="6">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6">
+        <v>45</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="1"/>
+        <v>8.1632653061224492</v>
+      </c>
+      <c r="H69" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>57</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="6">
+        <v>3</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H9" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="H71" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>4</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="6">
+        <v>21</v>
+      </c>
+      <c r="F74" s="6">
+        <v>28</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="1"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="H74" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="6">
+        <v>8</v>
+      </c>
+      <c r="F75" s="6">
+        <v>37</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="1"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="H75" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>49</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H76" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="6">
+        <v>22</v>
+      </c>
+      <c r="F77" s="6">
+        <v>26</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" si="1"/>
+        <v>45.833333333333329</v>
+      </c>
+      <c r="H77" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="6">
+        <v>51</v>
+      </c>
+      <c r="F78" s="6">
+        <v>3</v>
+      </c>
+      <c r="G78" s="7">
+        <f t="shared" si="1"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="H78" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="6">
+        <v>32</v>
+      </c>
+      <c r="F79" s="6">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
+      <c r="G79" s="7">
+        <f t="shared" si="1"/>
+        <v>62.745098039215684</v>
+      </c>
+      <c r="H79" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="6">
+        <v>15</v>
+      </c>
+      <c r="F80" s="6">
+        <v>2</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" si="1"/>
+        <v>88.235294117647058</v>
+      </c>
+      <c r="H80" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G81" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H81" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G11" s="7">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
+        <v>11</v>
+      </c>
+      <c r="G82" s="7">
         <f t="shared" si="1"/>
-        <v>44.186046511627907</v>
-      </c>
-      <c r="H11" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>4</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="6">
         <v>23</v>
       </c>
-      <c r="E12" s="6">
-        <v>40</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
+      <c r="F84" s="6">
+        <v>32</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" si="1"/>
+        <v>41.818181818181813</v>
+      </c>
+      <c r="H84" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="6">
+        <v>5</v>
+      </c>
+      <c r="F85" s="6">
+        <v>53</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" si="1"/>
+        <v>8.6206896551724146</v>
+      </c>
+      <c r="H85" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6">
+        <v>57</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6">
+        <v>51</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="6">
+        <v>3</v>
+      </c>
+      <c r="F88" s="6">
+        <v>12</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H88" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
         <v>7</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G89" s="7">
         <f t="shared" si="1"/>
-        <v>85.106382978723403</v>
-      </c>
-      <c r="H12" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6">
-        <v>41</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6">
+        <v>2</v>
+      </c>
+      <c r="G90" s="7">
         <f t="shared" si="1"/>
-        <v>93.181818181818173</v>
-      </c>
-      <c r="H13" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6">
-        <v>44</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>93.61702127659575</v>
-      </c>
-      <c r="H14" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="1"/>
-        <v>69.767441860465112</v>
-      </c>
-      <c r="H15" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="6">
-        <v>29</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>67.441860465116278</v>
-      </c>
-      <c r="H16" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6">
-        <v>42</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>89.361702127659569</v>
-      </c>
-      <c r="H17" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6">
-        <v>29</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>78.378378378378372</v>
-      </c>
-      <c r="H18" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="6">
-        <v>12</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="1"/>
-        <v>23.076923076923077</v>
-      </c>
-      <c r="H19" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="H20" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="6">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="1"/>
-        <v>18.518518518518519</v>
-      </c>
-      <c r="H23" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="1"/>
-        <v>1.7857142857142856</v>
-      </c>
-      <c r="H24" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="6">
-        <v>37</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="1"/>
-        <v>92.5</v>
-      </c>
-      <c r="H28" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="6">
-        <v>35</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="1"/>
-        <v>85.365853658536579</v>
-      </c>
-      <c r="H29" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="6">
-        <v>11</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="1"/>
-        <v>26.829268292682929</v>
-      </c>
-      <c r="H31" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="6">
-        <v>21</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="1"/>
-        <v>48.837209302325576</v>
-      </c>
-      <c r="H32" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="6">
-        <v>8</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="1"/>
-        <v>19.047619047619047</v>
-      </c>
-      <c r="H33" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="6">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="1"/>
-        <v>11.904761904761903</v>
-      </c>
-      <c r="H34" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="6">
-        <v>37</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="1"/>
-        <v>88.095238095238088</v>
-      </c>
-      <c r="H35" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="C91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="6">
         <v>16</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="1"/>
-        <v>36.363636363636367</v>
-      </c>
-      <c r="H36" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="6">
-        <v>14</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="1"/>
-        <v>34.146341463414636</v>
-      </c>
-      <c r="H37" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="6">
-        <v>29</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G38" s="7">
-        <f t="shared" si="1"/>
-        <v>64.444444444444443</v>
-      </c>
-      <c r="H38" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="6">
-        <v>5</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G39" s="7">
-        <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="H39" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G40" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="6">
-        <v>31</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="1"/>
-        <v>70.454545454545453</v>
-      </c>
-      <c r="H41" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="G42" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="H42" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="6">
-        <v>22</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G43" s="7">
-        <f t="shared" si="1"/>
-        <v>53.658536585365859</v>
-      </c>
-      <c r="H43" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="6">
-        <v>41</v>
-      </c>
-      <c r="F44" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="7">
-        <f t="shared" si="1"/>
-        <v>97.61904761904762</v>
-      </c>
-      <c r="H44" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="6">
-        <v>32</v>
-      </c>
-      <c r="F45" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G45" s="7">
-        <f t="shared" si="1"/>
-        <v>76.19047619047619</v>
-      </c>
-      <c r="H45" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="6">
-        <v>28</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G46" s="7">
-        <f t="shared" si="1"/>
-        <v>68.292682926829272</v>
-      </c>
-      <c r="H46" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="6">
-        <v>33</v>
-      </c>
-      <c r="F47" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="7">
-        <f t="shared" si="1"/>
-        <v>97.058823529411768</v>
-      </c>
-      <c r="H47" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="6">
-        <v>39</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="F91" s="6">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H48" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="H91" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="C92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="6">
+        <v>23</v>
+      </c>
+      <c r="F93" s="6">
+        <v>4</v>
+      </c>
+      <c r="G93" s="7">
+        <f t="shared" si="1"/>
+        <v>85.18518518518519</v>
+      </c>
+      <c r="H93" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="6">
+        <v>31</v>
+      </c>
+      <c r="F94" s="6">
+        <v>16</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" si="1"/>
+        <v>65.957446808510639</v>
+      </c>
+      <c r="H94" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="6">
+        <v>3</v>
+      </c>
+      <c r="F95" s="6">
+        <v>46</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="H95" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="6">
+        <v>14</v>
+      </c>
+      <c r="F96" s="6">
+        <v>35</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="1"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="H96" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="6">
+        <v>29</v>
+      </c>
+      <c r="F97" s="6">
+        <v>13</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="1"/>
+        <v>69.047619047619051</v>
+      </c>
+      <c r="H97" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>44</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="6">
+        <v>10</v>
+      </c>
+      <c r="F99" s="6">
+        <v>37</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="1"/>
+        <v>21.276595744680851</v>
+      </c>
+      <c r="H99" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="6">
+        <v>43</v>
+      </c>
+      <c r="F100" s="6">
+        <v>4</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" si="1"/>
+        <v>91.489361702127653</v>
+      </c>
+      <c r="H100" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="6">
+        <v>23</v>
+      </c>
+      <c r="F101" s="6">
+        <v>27</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H101" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="6">
+        <v>46</v>
+      </c>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="1"/>
+        <v>97.872340425531917</v>
+      </c>
+      <c r="H102" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="6">
+        <v>21</v>
+      </c>
+      <c r="F103" s="6">
+        <v>34</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" si="1"/>
+        <v>38.181818181818187</v>
+      </c>
+      <c r="H103" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="6">
+        <v>20</v>
+      </c>
+      <c r="F104" s="6">
+        <v>29</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" si="1"/>
+        <v>40.816326530612244</v>
+      </c>
+      <c r="H104" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="6">
+        <v>28</v>
+      </c>
+      <c r="F105" s="6">
+        <v>9</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="1"/>
+        <v>75.675675675675677</v>
+      </c>
+      <c r="H105" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="6">
+        <v>45</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0</v>
+      </c>
+      <c r="G106" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H106" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="6">
+        <v>7</v>
+      </c>
+      <c r="F107" s="6">
+        <v>43</v>
+      </c>
+      <c r="G107" s="7">
+        <f t="shared" si="1"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="H107" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="6">
+        <v>17</v>
+      </c>
+      <c r="F108" s="6">
+        <v>25</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" si="1"/>
+        <v>40.476190476190474</v>
+      </c>
+      <c r="H108" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="6">
+        <v>25</v>
+      </c>
+      <c r="F109" s="6">
         <v>15</v>
       </c>
-      <c r="F49" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="G109" s="7">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H109" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" s="6">
+        <v>37</v>
+      </c>
+      <c r="F110" s="6">
+        <v>10</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" si="1"/>
+        <v>78.723404255319153</v>
+      </c>
+      <c r="H110" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6">
+        <v>46</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="6">
+        <v>44</v>
+      </c>
+      <c r="F112" s="6">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" si="1"/>
+        <v>97.777777777777771</v>
+      </c>
+      <c r="H112" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="6">
+        <v>34</v>
+      </c>
+      <c r="F113" s="6">
+        <v>12</v>
+      </c>
+      <c r="G113" s="7">
+        <f t="shared" si="1"/>
+        <v>73.91304347826086</v>
+      </c>
+      <c r="H113" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0</v>
+      </c>
+      <c r="F114" s="6">
+        <v>47</v>
+      </c>
+      <c r="G114" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115" s="6">
+        <v>20</v>
+      </c>
+      <c r="F115" s="6">
+        <v>23</v>
+      </c>
+      <c r="G115" s="7">
+        <f t="shared" si="1"/>
+        <v>46.511627906976742</v>
+      </c>
+      <c r="H115" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="6">
+        <v>0</v>
+      </c>
+      <c r="F116" s="6">
+        <v>45</v>
+      </c>
+      <c r="G116" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="6">
+        <v>11</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="6">
+        <v>3</v>
+      </c>
+      <c r="G118" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="6">
+        <v>4</v>
+      </c>
+      <c r="F120" s="6">
+        <v>8</v>
+      </c>
+      <c r="G120" s="7">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="H49" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="H120" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6">
+        <v>2</v>
+      </c>
+      <c r="G121" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0</v>
+      </c>
+      <c r="F122" s="6">
+        <v>3</v>
+      </c>
+      <c r="G122" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E123" s="6">
+        <v>36</v>
+      </c>
+      <c r="F123" s="6">
+        <v>5</v>
+      </c>
+      <c r="G123" s="7">
+        <f t="shared" si="1"/>
+        <v>87.804878048780495</v>
+      </c>
+      <c r="H123" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="6">
+        <v>3</v>
+      </c>
+      <c r="F124" s="6">
+        <v>37</v>
+      </c>
+      <c r="G124" s="7">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="H124" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125" s="6">
         <v>34</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="F125" s="6">
+        <v>6</v>
+      </c>
+      <c r="G125" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H125" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E126" s="6">
+        <v>31</v>
+      </c>
+      <c r="F126" s="6">
+        <v>11</v>
+      </c>
+      <c r="G126" s="7">
+        <f t="shared" si="1"/>
+        <v>73.80952380952381</v>
+      </c>
+      <c r="H126" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="6">
+        <v>44</v>
+      </c>
+      <c r="G127" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E128" s="6">
+        <v>37</v>
+      </c>
+      <c r="F128" s="6">
+        <v>7</v>
+      </c>
+      <c r="G128" s="7">
+        <f t="shared" si="1"/>
+        <v>84.090909090909093</v>
+      </c>
+      <c r="H128" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="6">
+        <v>34</v>
+      </c>
+      <c r="F129" s="6">
+        <v>7</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" si="1"/>
+        <v>82.926829268292678</v>
+      </c>
+      <c r="H129" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E130" s="6">
+        <v>22</v>
+      </c>
+      <c r="F130" s="6">
+        <v>20</v>
+      </c>
+      <c r="G130" s="7">
+        <f t="shared" si="1"/>
+        <v>52.380952380952387</v>
+      </c>
+      <c r="H130" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" s="6">
+        <v>3</v>
+      </c>
+      <c r="F131" s="6">
+        <v>46</v>
+      </c>
+      <c r="G131" s="7">
+        <f t="shared" ref="G131:G194" si="2">(E131/H131)*100</f>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="H131" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E132" s="6">
+        <v>37</v>
+      </c>
+      <c r="F132" s="6">
+        <v>6</v>
+      </c>
+      <c r="G132" s="7">
+        <f t="shared" si="2"/>
+        <v>86.04651162790698</v>
+      </c>
+      <c r="H132" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E133" s="6">
+        <v>19</v>
+      </c>
+      <c r="F133" s="6">
+        <v>10</v>
+      </c>
+      <c r="G133" s="7">
+        <f t="shared" si="2"/>
+        <v>65.517241379310349</v>
+      </c>
+      <c r="H133" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E134" s="6">
+        <v>14</v>
+      </c>
+      <c r="F134" s="6">
+        <v>17</v>
+      </c>
+      <c r="G134" s="7">
+        <f t="shared" si="2"/>
+        <v>45.161290322580641</v>
+      </c>
+      <c r="H134" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="6">
         <v>70</v>
       </c>
-      <c r="E50" s="6">
-        <v>10</v>
-      </c>
-      <c r="F50" s="6">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G50" s="7">
-        <f t="shared" si="1"/>
-        <v>21.276595744680851</v>
-      </c>
-      <c r="H50" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="G135" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="H135" s="6">
         <v>71</v>
       </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="G51" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="6">
-        <v>4</v>
-      </c>
-      <c r="F52" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G52" s="7">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H52" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" s="6">
+        <v>0</v>
+      </c>
+      <c r="F136" s="6">
         <v>1</v>
       </c>
-      <c r="G53" s="7">
-        <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="H53" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="6">
+      <c r="G136" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="6">
         <v>1</v>
       </c>
-      <c r="F54" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G54" s="7">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="H54" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="6">
-        <v>38</v>
-      </c>
-      <c r="F55" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G55" s="7">
-        <f t="shared" si="1"/>
-        <v>77.551020408163268</v>
-      </c>
-      <c r="H55" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="6">
-        <v>19</v>
-      </c>
-      <c r="F56" s="6">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="G56" s="7">
-        <f t="shared" si="1"/>
-        <v>39.583333333333329</v>
-      </c>
-      <c r="H56" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G57" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="6">
-        <v>36</v>
-      </c>
-      <c r="F58" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G58" s="7">
-        <f t="shared" si="1"/>
-        <v>76.59574468085107</v>
-      </c>
-      <c r="H58" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="6">
-        <v>3</v>
-      </c>
-      <c r="F59" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G59" s="7">
-        <f t="shared" si="1"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="H59" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="6">
-        <v>49</v>
-      </c>
-      <c r="F60" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H60" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="6">
-        <v>4</v>
-      </c>
-      <c r="F61" s="6">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="G61" s="7">
-        <f t="shared" si="1"/>
-        <v>8.5106382978723403</v>
-      </c>
-      <c r="H61" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="G62" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="6">
-        <v>37</v>
-      </c>
-      <c r="F63" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G63" s="7">
-        <f t="shared" si="1"/>
-        <v>86.04651162790698</v>
-      </c>
-      <c r="H63" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G64" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="6">
-        <v>4</v>
-      </c>
-      <c r="F65" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G65" s="7">
-        <f t="shared" si="1"/>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="H65" s="8">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
-      <c r="F66" s="6">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="G66" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="6">
-        <v>25</v>
-      </c>
-      <c r="F67" s="6">
-        <f t="shared" ref="F67:F130" si="2">(H67-E67)</f>
-        <v>16</v>
-      </c>
-      <c r="G67" s="7">
-        <f t="shared" ref="G67:G130" si="3">(E67/H67)*100</f>
-        <v>60.975609756097562</v>
-      </c>
-      <c r="H67" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="6">
-        <v>13</v>
-      </c>
-      <c r="F68" s="6">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G68" s="7">
-        <f t="shared" si="3"/>
-        <v>27.659574468085108</v>
-      </c>
-      <c r="H68" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="6">
-        <v>4</v>
-      </c>
-      <c r="F69" s="6">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="G69" s="7">
-        <f t="shared" si="3"/>
-        <v>8.1632653061224492</v>
-      </c>
-      <c r="H69" s="8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="G70" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="6">
-        <v>3</v>
-      </c>
-      <c r="F71" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="7">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H71" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G72" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <f t="shared" si="2"/>
+      <c r="C137" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E137" s="6">
         <v>1</v>
       </c>
-      <c r="G73" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="6">
-        <v>21</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G74" s="7">
-        <f t="shared" si="3"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="H74" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="6">
-        <v>8</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="G75" s="7">
-        <f t="shared" si="3"/>
-        <v>17.777777777777779</v>
-      </c>
-      <c r="H75" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="G76" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H76" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="6">
-        <v>22</v>
-      </c>
-      <c r="F77" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="G77" s="7">
-        <f t="shared" si="3"/>
-        <v>45.833333333333329</v>
-      </c>
-      <c r="H77" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="6">
-        <v>51</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G78" s="7">
-        <f t="shared" si="3"/>
-        <v>94.444444444444443</v>
-      </c>
-      <c r="H78" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="6">
-        <v>31</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G79" s="7">
-        <f t="shared" si="3"/>
-        <v>60.784313725490193</v>
-      </c>
-      <c r="H79" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" s="6">
-        <v>15</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G80" s="7">
-        <f t="shared" si="3"/>
-        <v>88.235294117647058</v>
-      </c>
-      <c r="H80" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G81" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G82" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G83" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="6">
-        <v>23</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="G84" s="7">
-        <f t="shared" si="3"/>
-        <v>41.818181818181813</v>
-      </c>
-      <c r="H84" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="6">
-        <v>5</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="G85" s="7">
-        <f t="shared" si="3"/>
-        <v>8.6206896551724146</v>
-      </c>
-      <c r="H85" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="6">
-        <v>0</v>
-      </c>
-      <c r="F86" s="6">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="G86" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="6">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="G87" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88" s="6">
-        <v>2</v>
-      </c>
-      <c r="F88" s="6">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G88" s="7">
-        <f t="shared" si="3"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="H88" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0</v>
-      </c>
-      <c r="F89" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G89" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="6">
-        <v>0</v>
-      </c>
-      <c r="F90" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G90" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="6">
-        <v>16</v>
-      </c>
-      <c r="F91" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="7">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H91" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E92" s="6">
-        <v>0</v>
-      </c>
-      <c r="F92" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G92" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E93" s="6">
-        <v>23</v>
-      </c>
-      <c r="F93" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G93" s="7">
-        <f t="shared" si="3"/>
-        <v>85.18518518518519</v>
-      </c>
-      <c r="H93" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E94" s="6">
-        <v>31</v>
-      </c>
-      <c r="F94" s="6">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G94" s="7">
-        <f t="shared" si="3"/>
-        <v>65.957446808510639</v>
-      </c>
-      <c r="H94" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="6">
-        <v>3</v>
-      </c>
-      <c r="F95" s="6">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="G95" s="7">
-        <f t="shared" si="3"/>
-        <v>6.1224489795918364</v>
-      </c>
-      <c r="H95" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" s="6">
-        <v>14</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="G96" s="7">
-        <f t="shared" si="3"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="H96" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E97" s="6">
-        <v>29</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G97" s="7">
-        <f t="shared" si="3"/>
-        <v>69.047619047619051</v>
-      </c>
-      <c r="H97" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E98" s="6">
-        <v>0</v>
-      </c>
-      <c r="F98" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="G98" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" s="6">
-        <v>10</v>
-      </c>
-      <c r="F99" s="6">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="G99" s="7">
-        <f t="shared" si="3"/>
-        <v>21.276595744680851</v>
-      </c>
-      <c r="H99" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="6">
-        <v>43</v>
-      </c>
-      <c r="F100" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G100" s="7">
-        <f t="shared" si="3"/>
-        <v>91.489361702127653</v>
-      </c>
-      <c r="H100" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="6">
-        <v>23</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G101" s="7">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="H101" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="6">
-        <v>46</v>
-      </c>
-      <c r="F102" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G102" s="7">
-        <f t="shared" si="3"/>
-        <v>97.872340425531917</v>
-      </c>
-      <c r="H102" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="6">
-        <v>21</v>
-      </c>
-      <c r="F103" s="6">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G103" s="7">
-        <f t="shared" si="3"/>
-        <v>38.181818181818187</v>
-      </c>
-      <c r="H103" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="6">
-        <v>20</v>
-      </c>
-      <c r="F104" s="6">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G104" s="7">
-        <f t="shared" si="3"/>
-        <v>40.816326530612244</v>
-      </c>
-      <c r="H104" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="6">
-        <v>28</v>
-      </c>
-      <c r="F105" s="6">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G105" s="7">
-        <f t="shared" si="3"/>
-        <v>75.675675675675677</v>
-      </c>
-      <c r="H105" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E106" s="6">
-        <v>45</v>
-      </c>
-      <c r="F106" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="7">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H106" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" s="6">
-        <v>7</v>
-      </c>
-      <c r="F107" s="6">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="G107" s="7">
-        <f t="shared" si="3"/>
-        <v>14.000000000000002</v>
-      </c>
-      <c r="H107" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E108" s="6">
-        <v>17</v>
-      </c>
-      <c r="F108" s="6">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G108" s="7">
-        <f t="shared" si="3"/>
-        <v>40.476190476190474</v>
-      </c>
-      <c r="H108" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" s="6">
-        <v>25</v>
-      </c>
-      <c r="F109" s="6">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G109" s="7">
-        <f t="shared" si="3"/>
-        <v>62.5</v>
-      </c>
-      <c r="H109" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="6">
-        <v>37</v>
-      </c>
-      <c r="F110" s="6">
+      <c r="F137" s="6">
+        <v>9</v>
+      </c>
+      <c r="G137" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G110" s="7">
-        <f t="shared" si="3"/>
-        <v>78.723404255319153</v>
-      </c>
-      <c r="H110" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E111" s="6">
-        <v>0</v>
-      </c>
-      <c r="F111" s="6">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="G111" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E112" s="6">
-        <v>44</v>
-      </c>
-      <c r="F112" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G112" s="7">
-        <f t="shared" si="3"/>
-        <v>97.777777777777771</v>
-      </c>
-      <c r="H112" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="6">
-        <v>34</v>
-      </c>
-      <c r="F113" s="6">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G113" s="7">
-        <f t="shared" si="3"/>
-        <v>73.91304347826086</v>
-      </c>
-      <c r="H113" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E114" s="6">
-        <v>0</v>
-      </c>
-      <c r="F114" s="6">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="G114" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E115" s="6">
-        <v>20</v>
-      </c>
-      <c r="F115" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G115" s="7">
-        <f t="shared" si="3"/>
-        <v>46.511627906976742</v>
-      </c>
-      <c r="H115" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E116" s="6">
-        <v>0</v>
-      </c>
-      <c r="F116" s="6">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="G116" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E117" s="6">
-        <v>0</v>
-      </c>
-      <c r="F117" s="6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G117" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E118" s="6">
-        <v>0</v>
-      </c>
-      <c r="F118" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G118" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E119" s="6">
-        <v>0</v>
-      </c>
-      <c r="F119" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G119" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E120" s="6">
-        <v>4</v>
-      </c>
-      <c r="F120" s="6">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G120" s="7">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="H120" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" s="6">
-        <v>0</v>
-      </c>
-      <c r="F121" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G121" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E122" s="6">
-        <v>0</v>
-      </c>
-      <c r="F122" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G122" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E123" s="6">
-        <v>36</v>
-      </c>
-      <c r="F123" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G123" s="7">
-        <f t="shared" si="3"/>
-        <v>87.804878048780495</v>
-      </c>
-      <c r="H123" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E124" s="6">
-        <v>3</v>
-      </c>
-      <c r="F124" s="6">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="G124" s="7">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="H124" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E125" s="6">
-        <v>34</v>
-      </c>
-      <c r="F125" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G125" s="7">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="H125" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E126" s="6">
-        <v>31</v>
-      </c>
-      <c r="F126" s="6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G126" s="7">
-        <f t="shared" si="3"/>
-        <v>73.80952380952381</v>
-      </c>
-      <c r="H126" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E127" s="6">
-        <v>0</v>
-      </c>
-      <c r="F127" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="G127" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H127" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E128" s="6">
-        <v>37</v>
-      </c>
-      <c r="F128" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G128" s="7">
-        <f t="shared" si="3"/>
-        <v>84.090909090909093</v>
-      </c>
-      <c r="H128" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" s="6">
-        <v>34</v>
-      </c>
-      <c r="F129" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G129" s="7">
-        <f t="shared" si="3"/>
-        <v>82.926829268292678</v>
-      </c>
-      <c r="H129" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E130" s="6">
-        <v>22</v>
-      </c>
-      <c r="F130" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G130" s="7">
-        <f t="shared" si="3"/>
-        <v>52.380952380952387</v>
-      </c>
-      <c r="H130" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E131" s="6">
-        <v>3</v>
-      </c>
-      <c r="F131" s="6">
-        <f t="shared" ref="F131:F194" si="4">(H131-E131)</f>
-        <v>46</v>
-      </c>
-      <c r="G131" s="7">
-        <f t="shared" ref="G131:G194" si="5">(E131/H131)*100</f>
-        <v>6.1224489795918364</v>
-      </c>
-      <c r="H131" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E132" s="6">
-        <v>37</v>
-      </c>
-      <c r="F132" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G132" s="7">
-        <f t="shared" si="5"/>
-        <v>86.04651162790698</v>
-      </c>
-      <c r="H132" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E133" s="6">
-        <v>19</v>
-      </c>
-      <c r="F133" s="6">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G133" s="7">
-        <f t="shared" si="5"/>
-        <v>65.517241379310349</v>
-      </c>
-      <c r="H133" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E134" s="6">
-        <v>14</v>
-      </c>
-      <c r="F134" s="6">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="G134" s="7">
-        <f t="shared" si="5"/>
-        <v>45.161290322580641</v>
-      </c>
-      <c r="H134" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E135" s="6">
-        <v>1</v>
-      </c>
-      <c r="F135" s="6">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="G135" s="7">
-        <f t="shared" si="5"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="H135" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E136" s="6">
-        <v>0</v>
-      </c>
-      <c r="F136" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G136" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H136" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E137" s="6">
-        <v>1</v>
-      </c>
-      <c r="F137" s="6">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G137" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
       <c r="H137" s="6">
         <v>10</v>
       </c>
@@ -5319,11 +5183,10 @@
         <v>0</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G138" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H138" s="6">
@@ -5347,11 +5210,10 @@
         <v>0</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G139" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H139" s="6">
@@ -5375,11 +5237,10 @@
         <v>0</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G140" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H140" s="6">
@@ -5403,11 +5264,10 @@
         <v>0</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G141" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H141" s="6">
@@ -5431,11 +5291,10 @@
         <v>0</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H142" s="6">
@@ -5459,11 +5318,10 @@
         <v>31</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G143" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>64.583333333333343</v>
       </c>
       <c r="H143" s="6">
@@ -5487,11 +5345,10 @@
         <v>40</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G144" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>88.888888888888886</v>
       </c>
       <c r="H144" s="6">
@@ -5515,11 +5372,10 @@
         <v>21</v>
       </c>
       <c r="F145" s="6">
-        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G145" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>44.680851063829785</v>
       </c>
       <c r="H145" s="6">
@@ -5543,11 +5399,10 @@
         <v>27</v>
       </c>
       <c r="F146" s="6">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>58.695652173913047</v>
       </c>
       <c r="H146" s="6">
@@ -5571,11 +5426,10 @@
         <v>33</v>
       </c>
       <c r="F147" s="6">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G147" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
       <c r="H147" s="6">
@@ -5599,11 +5453,10 @@
         <v>49</v>
       </c>
       <c r="F148" s="6">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G148" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>90.740740740740748</v>
       </c>
       <c r="H148" s="6">
@@ -5627,11 +5480,10 @@
         <v>29</v>
       </c>
       <c r="F149" s="6">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G149" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>63.04347826086957</v>
       </c>
       <c r="H149" s="6">
@@ -5655,11 +5507,10 @@
         <v>12</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.428571428571427</v>
       </c>
       <c r="H150" s="6">
@@ -5683,11 +5534,10 @@
         <v>6</v>
       </c>
       <c r="F151" s="6">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10.714285714285714</v>
       </c>
       <c r="H151" s="6">
@@ -5711,11 +5561,10 @@
         <v>0</v>
       </c>
       <c r="F152" s="6">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G152" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H152" s="6">
@@ -5739,11 +5588,10 @@
         <v>0</v>
       </c>
       <c r="F153" s="6">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H153" s="6">
@@ -5767,11 +5615,10 @@
         <v>0</v>
       </c>
       <c r="F154" s="6">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H154" s="6">
@@ -5795,11 +5642,10 @@
         <v>4</v>
       </c>
       <c r="F155" s="6">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>26.666666666666668</v>
       </c>
       <c r="H155" s="6">
@@ -5823,11 +5669,10 @@
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G156" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H156" s="6">
@@ -5851,11 +5696,10 @@
         <v>42</v>
       </c>
       <c r="F157" s="6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G157" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H157" s="6">
@@ -5879,11 +5723,10 @@
         <v>43</v>
       </c>
       <c r="F158" s="6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H158" s="6">
@@ -5907,11 +5750,10 @@
         <v>19</v>
       </c>
       <c r="F159" s="6">
-        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="G159" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>46.341463414634148</v>
       </c>
       <c r="H159" s="6">
@@ -5935,11 +5777,10 @@
         <v>31</v>
       </c>
       <c r="F160" s="6">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G160" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>96.875</v>
       </c>
       <c r="H160" s="6">
@@ -5963,11 +5804,10 @@
         <v>25</v>
       </c>
       <c r="F161" s="6">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G161" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>58.139534883720934</v>
       </c>
       <c r="H161" s="6">
@@ -5991,11 +5831,10 @@
         <v>25</v>
       </c>
       <c r="F162" s="6">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>60.975609756097562</v>
       </c>
       <c r="H162" s="6">
@@ -6019,11 +5858,10 @@
         <v>29</v>
       </c>
       <c r="F163" s="6">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G163" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>82.857142857142861</v>
       </c>
       <c r="H163" s="6">
@@ -6047,11 +5885,10 @@
         <v>0</v>
       </c>
       <c r="F164" s="6">
-        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="G164" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H164" s="6">
@@ -6075,11 +5912,10 @@
         <v>12</v>
       </c>
       <c r="F165" s="6">
-        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="G165" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>29.268292682926827</v>
       </c>
       <c r="H165" s="6">
@@ -6103,11 +5939,10 @@
         <v>10</v>
       </c>
       <c r="F166" s="6">
-        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.222222222222221</v>
       </c>
       <c r="H166" s="6">
@@ -6131,11 +5966,10 @@
         <v>34</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G167" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>70.833333333333343</v>
       </c>
       <c r="H167" s="6">
@@ -6159,11 +5993,10 @@
         <v>7</v>
       </c>
       <c r="F168" s="6">
-        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="G168" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17.073170731707318</v>
       </c>
       <c r="H168" s="6">
@@ -6187,11 +6020,10 @@
         <v>32</v>
       </c>
       <c r="F169" s="6">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G169" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>72.727272727272734</v>
       </c>
       <c r="H169" s="6">
@@ -6215,11 +6047,10 @@
         <v>19</v>
       </c>
       <c r="F170" s="6">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="G170" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>43.18181818181818</v>
       </c>
       <c r="H170" s="6">
@@ -6243,11 +6074,10 @@
         <v>12</v>
       </c>
       <c r="F171" s="6">
-        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="G171" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.33898305084746</v>
       </c>
       <c r="H171" s="6">
@@ -6271,11 +6101,10 @@
         <v>34</v>
       </c>
       <c r="F172" s="6">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G172" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>80.952380952380949</v>
       </c>
       <c r="H172" s="6">
@@ -6299,11 +6128,10 @@
         <v>0</v>
       </c>
       <c r="F173" s="6">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G173" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H173" s="6">
@@ -6327,11 +6155,10 @@
         <v>0</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H174" s="6">
@@ -6355,11 +6182,10 @@
         <v>0</v>
       </c>
       <c r="F175" s="6">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G175" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H175" s="6">
@@ -6383,11 +6209,10 @@
         <v>48</v>
       </c>
       <c r="F176" s="6">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G176" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
       <c r="H176" s="6">
@@ -6411,11 +6236,10 @@
         <v>0</v>
       </c>
       <c r="F177" s="6">
-        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G177" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H177" s="6">
@@ -6439,11 +6263,10 @@
         <v>39</v>
       </c>
       <c r="F178" s="6">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G178" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>73.584905660377359</v>
       </c>
       <c r="H178" s="6">
@@ -6467,11 +6290,10 @@
         <v>53</v>
       </c>
       <c r="F179" s="6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G179" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H179" s="6">
@@ -6495,11 +6317,10 @@
         <v>43</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G180" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>89.583333333333343</v>
       </c>
       <c r="H180" s="6">
@@ -6523,11 +6344,10 @@
         <v>26</v>
       </c>
       <c r="F181" s="6">
-        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G181" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>55.319148936170215</v>
       </c>
       <c r="H181" s="6">
@@ -6551,11 +6371,10 @@
         <v>0</v>
       </c>
       <c r="F182" s="6">
-        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="G182" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H182" s="6">
@@ -6579,11 +6398,10 @@
         <v>31</v>
       </c>
       <c r="F183" s="6">
-        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G183" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>70.454545454545453</v>
       </c>
       <c r="H183" s="6">
@@ -6607,11 +6425,10 @@
         <v>32</v>
       </c>
       <c r="F184" s="6">
-        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G184" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>60.377358490566039</v>
       </c>
       <c r="H184" s="6">
@@ -6635,11 +6452,10 @@
         <v>43</v>
       </c>
       <c r="F185" s="6">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G185" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>74.137931034482762</v>
       </c>
       <c r="H185" s="6">
@@ -6663,11 +6479,10 @@
         <v>31</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="G186" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>53.448275862068961</v>
       </c>
       <c r="H186" s="6">
@@ -6691,11 +6506,10 @@
         <v>0</v>
       </c>
       <c r="F187" s="6">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G187" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H187" s="6">
@@ -6719,11 +6533,10 @@
         <v>23</v>
       </c>
       <c r="F188" s="6">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G188" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>54.761904761904766</v>
       </c>
       <c r="H188" s="6">
@@ -6747,11 +6560,10 @@
         <v>40</v>
       </c>
       <c r="F189" s="6">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G189" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>95.238095238095227</v>
       </c>
       <c r="H189" s="6">
@@ -6772,15 +6584,14 @@
         <v>239</v>
       </c>
       <c r="E190" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F190" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G190" s="7">
-        <f t="shared" si="5"/>
-        <v>60.975609756097562</v>
+        <f t="shared" si="2"/>
+        <v>63.414634146341463</v>
       </c>
       <c r="H190" s="6">
         <v>41</v>
@@ -6803,11 +6614,10 @@
         <v>10</v>
       </c>
       <c r="F191" s="6">
-        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="G191" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>25.641025641025639</v>
       </c>
       <c r="H191" s="6">
@@ -6831,11 +6641,10 @@
         <v>41</v>
       </c>
       <c r="F192" s="6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G192" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H192" s="6">
@@ -6859,11 +6668,10 @@
         <v>36</v>
       </c>
       <c r="F193" s="6">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G193" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>87.804878048780495</v>
       </c>
       <c r="H193" s="6">
@@ -6887,11 +6695,10 @@
         <v>38</v>
       </c>
       <c r="F194" s="6">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G194" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="H194" s="6">
@@ -6915,11 +6722,10 @@
         <v>19</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" ref="F195:F258" si="6">(H195-E195)</f>
         <v>23</v>
       </c>
       <c r="G195" s="7">
-        <f t="shared" ref="G195:G258" si="7">(E195/H195)*100</f>
+        <f t="shared" ref="G195:G258" si="3">(E195/H195)*100</f>
         <v>45.238095238095241</v>
       </c>
       <c r="H195" s="6">
@@ -6943,11 +6749,10 @@
         <v>19</v>
       </c>
       <c r="F196" s="6">
-        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="G196" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>51.351351351351347</v>
       </c>
       <c r="H196" s="6">
@@ -6971,11 +6776,10 @@
         <v>21</v>
       </c>
       <c r="F197" s="6">
-        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G197" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>45.652173913043477</v>
       </c>
       <c r="H197" s="8">
@@ -6999,11 +6803,10 @@
         <v>42</v>
       </c>
       <c r="F198" s="6">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G198" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>97.674418604651152</v>
       </c>
       <c r="H198" s="9">
@@ -7027,11 +6830,10 @@
         <v>40</v>
       </c>
       <c r="F199" s="6">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G199" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>88.888888888888886</v>
       </c>
       <c r="H199" s="9">
@@ -7055,11 +6857,10 @@
         <v>15</v>
       </c>
       <c r="F200" s="6">
-        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G200" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>36.585365853658537</v>
       </c>
       <c r="H200" s="9">
@@ -7083,11 +6884,10 @@
         <v>0</v>
       </c>
       <c r="F201" s="6">
-        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="G201" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H201" s="9">
@@ -7111,11 +6911,10 @@
         <v>0</v>
       </c>
       <c r="F202" s="6">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="G202" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H202" s="9">
@@ -7139,11 +6938,10 @@
         <v>0</v>
       </c>
       <c r="F203" s="6">
-        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G203" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H203" s="9">
@@ -7167,11 +6965,10 @@
         <v>0</v>
       </c>
       <c r="F204" s="6">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G204" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H204" s="8">
@@ -7195,11 +6992,10 @@
         <v>51</v>
       </c>
       <c r="F205" s="6">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G205" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>98.076923076923066</v>
       </c>
       <c r="H205" s="6">
@@ -7223,11 +7019,10 @@
         <v>49</v>
       </c>
       <c r="F206" s="6">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G206" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>92.452830188679243</v>
       </c>
       <c r="H206" s="6">
@@ -7251,11 +7046,10 @@
         <v>32</v>
       </c>
       <c r="F207" s="6">
-        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="G207" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>62.745098039215684</v>
       </c>
       <c r="H207" s="6">
@@ -7279,11 +7073,10 @@
         <v>51</v>
       </c>
       <c r="F208" s="6">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G208" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>92.72727272727272</v>
       </c>
       <c r="H208" s="6">
@@ -7304,15 +7097,14 @@
         <v>261</v>
       </c>
       <c r="E209" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F209" s="6">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G209" s="7">
-        <f t="shared" si="7"/>
-        <v>53.061224489795919</v>
+        <f t="shared" si="3"/>
+        <v>57.142857142857139</v>
       </c>
       <c r="H209" s="6">
         <v>49</v>
@@ -7335,11 +7127,10 @@
         <v>40</v>
       </c>
       <c r="F210" s="6">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G210" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>74.074074074074076</v>
       </c>
       <c r="H210" s="6">
@@ -7363,11 +7154,10 @@
         <v>0</v>
       </c>
       <c r="F211" s="6">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="G211" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H211" s="6">
@@ -7391,11 +7181,10 @@
         <v>47</v>
       </c>
       <c r="F212" s="6">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G212" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>92.156862745098039</v>
       </c>
       <c r="H212" s="6">
@@ -7419,11 +7208,10 @@
         <v>1</v>
       </c>
       <c r="F213" s="6">
-        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="G213" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.7027027027027026</v>
       </c>
       <c r="H213" s="6">
@@ -7447,11 +7235,10 @@
         <v>22</v>
       </c>
       <c r="F214" s="6">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G214" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>68.75</v>
       </c>
       <c r="H214" s="6">
@@ -7472,15 +7259,14 @@
         <v>13</v>
       </c>
       <c r="E215" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F215" s="6">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G215" s="7">
-        <f t="shared" si="7"/>
-        <v>4.6511627906976747</v>
+        <f t="shared" si="3"/>
+        <v>6.9767441860465116</v>
       </c>
       <c r="H215" s="6">
         <v>43</v>
@@ -7503,11 +7289,10 @@
         <v>3</v>
       </c>
       <c r="F216" s="6">
-        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G216" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.3170731707317067</v>
       </c>
       <c r="H216" s="6">
@@ -7531,11 +7316,10 @@
         <v>31</v>
       </c>
       <c r="F217" s="6">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G217" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>68.888888888888886</v>
       </c>
       <c r="H217" s="6">
@@ -7559,11 +7343,10 @@
         <v>8</v>
       </c>
       <c r="F218" s="6">
-        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="G218" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>16.326530612244898</v>
       </c>
       <c r="H218" s="6">
@@ -7587,11 +7370,10 @@
         <v>2</v>
       </c>
       <c r="F219" s="6">
-        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="G219" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="H219" s="6">
@@ -7615,11 +7397,10 @@
         <v>3</v>
       </c>
       <c r="F220" s="6">
-        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="G220" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.8947368421052628</v>
       </c>
       <c r="H220" s="6">
@@ -7643,11 +7424,10 @@
         <v>0</v>
       </c>
       <c r="F221" s="6">
-        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="G221" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H221" s="6">
@@ -7668,15 +7448,14 @@
         <v>47</v>
       </c>
       <c r="E222" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" s="6">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G222" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.9411764705882351</v>
       </c>
       <c r="H222" s="6">
         <v>34</v>
@@ -7696,15 +7475,14 @@
         <v>56</v>
       </c>
       <c r="E223" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" s="6">
-        <f t="shared" si="6"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G223" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.8571428571428572</v>
       </c>
       <c r="H223" s="6">
         <v>35</v>
@@ -7727,11 +7505,10 @@
         <v>30</v>
       </c>
       <c r="F224" s="6">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G224" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>96.774193548387103</v>
       </c>
       <c r="H224" s="6">
@@ -7755,11 +7532,10 @@
         <v>18</v>
       </c>
       <c r="F225" s="6">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G225" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
       <c r="H225" s="6">
@@ -7780,15 +7556,14 @@
         <v>87</v>
       </c>
       <c r="E226" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F226" s="6">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G226" s="7">
-        <f t="shared" si="7"/>
-        <v>22.222222222222221</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="H226" s="6">
         <v>36</v>
@@ -7811,11 +7586,10 @@
         <v>6</v>
       </c>
       <c r="F227" s="6">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="G227" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H227" s="6">
@@ -7839,11 +7613,10 @@
         <v>9</v>
       </c>
       <c r="F228" s="6">
-        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="G228" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="H228" s="6">
@@ -7867,11 +7640,10 @@
         <v>8</v>
       </c>
       <c r="F229" s="6">
-        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="G229" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>22.222222222222221</v>
       </c>
       <c r="H229" s="6">
@@ -7895,11 +7667,10 @@
         <v>33</v>
       </c>
       <c r="F230" s="6">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G230" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H230" s="6">
@@ -7923,11 +7694,10 @@
         <v>35</v>
       </c>
       <c r="F231" s="6">
-        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G231" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>76.08695652173914</v>
       </c>
       <c r="H231" s="6">
@@ -7951,11 +7721,10 @@
         <v>0</v>
       </c>
       <c r="F232" s="6">
-        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="G232" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H232" s="6">
@@ -7979,11 +7748,10 @@
         <v>27</v>
       </c>
       <c r="F233" s="6">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="G233" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
       <c r="H233" s="6">
@@ -8007,11 +7775,10 @@
         <v>9</v>
       </c>
       <c r="F234" s="6">
-        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="G234" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
       <c r="H234" s="6">
@@ -8035,11 +7802,10 @@
         <v>3</v>
       </c>
       <c r="F235" s="6">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G235" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.9767441860465116</v>
       </c>
       <c r="H235" s="6">
@@ -8063,11 +7829,10 @@
         <v>0</v>
       </c>
       <c r="F236" s="6">
-        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G236" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H236" s="6">
@@ -8091,11 +7856,10 @@
         <v>0</v>
       </c>
       <c r="F237" s="6">
-        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="G237" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H237" s="6">
@@ -8119,11 +7883,10 @@
         <v>4</v>
       </c>
       <c r="F238" s="6">
-        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="G238" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="H238" s="6">
@@ -8147,11 +7910,10 @@
         <v>0</v>
       </c>
       <c r="F239" s="6">
-        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="G239" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H239" s="6">
@@ -8175,11 +7937,10 @@
         <v>0</v>
       </c>
       <c r="F240" s="6">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G240" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H240" s="6">
@@ -8200,15 +7961,14 @@
         <v>131</v>
       </c>
       <c r="E241" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F241" s="6">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G241" s="7">
-        <f t="shared" si="7"/>
-        <v>9.3023255813953494</v>
+        <f t="shared" si="3"/>
+        <v>11.627906976744185</v>
       </c>
       <c r="H241" s="6">
         <v>43</v>
@@ -8228,15 +7988,14 @@
         <v>132</v>
       </c>
       <c r="E242" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" s="6">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G242" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.6315789473684208</v>
       </c>
       <c r="H242" s="6">
         <v>38</v>
@@ -8259,11 +8018,10 @@
         <v>4</v>
       </c>
       <c r="F243" s="6">
-        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="G243" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>10.810810810810811</v>
       </c>
       <c r="H243" s="6">
@@ -8287,11 +8045,10 @@
         <v>7</v>
       </c>
       <c r="F244" s="6">
-        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G244" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>25.925925925925924</v>
       </c>
       <c r="H244" s="6">
@@ -8315,11 +8072,10 @@
         <v>10</v>
       </c>
       <c r="F245" s="6">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="G245" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>43.478260869565219</v>
       </c>
       <c r="H245" s="6">
@@ -8343,11 +8099,10 @@
         <v>1</v>
       </c>
       <c r="F246" s="6">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="G246" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.0303030303030303</v>
       </c>
       <c r="H246" s="6">
@@ -8371,11 +8126,10 @@
         <v>5</v>
       </c>
       <c r="F247" s="6">
-        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G247" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H247" s="6">
@@ -8399,11 +8153,10 @@
         <v>3</v>
       </c>
       <c r="F248" s="6">
-        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="G248" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.8181818181818175</v>
       </c>
       <c r="H248" s="6">
@@ -8427,11 +8180,10 @@
         <v>0</v>
       </c>
       <c r="F249" s="6">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G249" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H249" s="6">
@@ -8455,11 +8207,10 @@
         <v>1</v>
       </c>
       <c r="F250" s="6">
-        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="G250" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285712</v>
       </c>
       <c r="H250" s="6">
@@ -8483,11 +8234,10 @@
         <v>2</v>
       </c>
       <c r="F251" s="6">
-        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="G251" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="H251" s="6">
@@ -8511,11 +8261,10 @@
         <v>35</v>
       </c>
       <c r="F252" s="6">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G252" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>97.222222222222214</v>
       </c>
       <c r="H252" s="6">
@@ -8539,11 +8288,10 @@
         <v>28</v>
       </c>
       <c r="F253" s="6">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G253" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
       <c r="H253" s="6">
@@ -8567,11 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F254" s="6">
-        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="G254" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>23.684210526315788</v>
       </c>
       <c r="H254" s="6">
@@ -8595,11 +8342,10 @@
         <v>28</v>
       </c>
       <c r="F255" s="6">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G255" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>87.5</v>
       </c>
       <c r="H255" s="6">
@@ -8623,11 +8369,10 @@
         <v>15</v>
       </c>
       <c r="F256" s="6">
-        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="G256" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>31.25</v>
       </c>
       <c r="H256" s="6">
@@ -8651,11 +8396,10 @@
         <v>0</v>
       </c>
       <c r="F257" s="6">
-        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G257" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H257" s="6">
@@ -8679,11 +8423,10 @@
         <v>30</v>
       </c>
       <c r="F258" s="6">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G258" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>96.774193548387103</v>
       </c>
       <c r="H258" s="6">
@@ -8707,11 +8450,10 @@
         <v>5</v>
       </c>
       <c r="F259" s="6">
-        <f t="shared" ref="F259:F304" si="8">(H259-E259)</f>
         <v>46</v>
       </c>
       <c r="G259" s="7">
-        <f t="shared" ref="G259:G304" si="9">(E259/H259)*100</f>
+        <f t="shared" ref="G259:G304" si="4">(E259/H259)*100</f>
         <v>9.8039215686274517</v>
       </c>
       <c r="H259" s="6">
@@ -8735,11 +8477,10 @@
         <v>0</v>
       </c>
       <c r="F260" s="6">
-        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="G260" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H260" s="6">
@@ -8763,11 +8504,10 @@
         <v>0</v>
       </c>
       <c r="F261" s="6">
-        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G261" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H261" s="6">
@@ -8791,11 +8531,10 @@
         <v>0</v>
       </c>
       <c r="F262" s="6">
-        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G262" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H262" s="6">
@@ -8819,11 +8558,10 @@
         <v>0</v>
       </c>
       <c r="F263" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G263" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H263" s="6">
@@ -8847,11 +8585,10 @@
         <v>0</v>
       </c>
       <c r="F264" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G264" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H264" s="6">
@@ -8875,11 +8612,10 @@
         <v>0</v>
       </c>
       <c r="F265" s="6">
-        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="G265" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H265" s="6">
@@ -8903,11 +8639,10 @@
         <v>1</v>
       </c>
       <c r="F266" s="6">
-        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="G266" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="H266" s="6">
@@ -8931,11 +8666,10 @@
         <v>7</v>
       </c>
       <c r="F267" s="6">
-        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G267" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>14.893617021276595</v>
       </c>
       <c r="H267" s="6">
@@ -8959,11 +8693,10 @@
         <v>0</v>
       </c>
       <c r="F268" s="6">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G268" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H268" s="6">
@@ -8987,11 +8720,10 @@
         <v>0</v>
       </c>
       <c r="F269" s="6">
-        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="G269" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H269" s="6">
@@ -9015,11 +8747,10 @@
         <v>0</v>
       </c>
       <c r="F270" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G270" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H270" s="6">
@@ -9043,11 +8774,10 @@
         <v>0</v>
       </c>
       <c r="F271" s="6">
-        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="G271" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H271" s="6">
@@ -9068,15 +8798,14 @@
         <v>326</v>
       </c>
       <c r="E272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" s="6">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G272" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
       </c>
       <c r="H272" s="6">
         <v>40</v>
@@ -9099,11 +8828,10 @@
         <v>0</v>
       </c>
       <c r="F273" s="6">
-        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G273" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H273" s="6">
@@ -9127,11 +8855,10 @@
         <v>0</v>
       </c>
       <c r="F274" s="6">
-        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G274" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H274" s="6">
@@ -9155,11 +8882,10 @@
         <v>0</v>
       </c>
       <c r="F275" s="6">
-        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G275" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H275" s="6">
@@ -9183,11 +8909,10 @@
         <v>0</v>
       </c>
       <c r="F276" s="6">
-        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G276" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H276" s="6">
@@ -9211,11 +8936,10 @@
         <v>0</v>
       </c>
       <c r="F277" s="6">
-        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G277" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H277" s="6">
@@ -9239,11 +8963,10 @@
         <v>0</v>
       </c>
       <c r="F278" s="6">
-        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G278" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H278" s="6">
@@ -9267,11 +8990,10 @@
         <v>0</v>
       </c>
       <c r="F279" s="6">
-        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G279" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H279" s="5">
@@ -9295,11 +9017,10 @@
         <v>0</v>
       </c>
       <c r="F280" s="6">
-        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G280" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H280" s="5">
@@ -9323,11 +9044,10 @@
         <v>0</v>
       </c>
       <c r="F281" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G281" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H281" s="5">
@@ -9351,11 +9071,10 @@
         <v>0</v>
       </c>
       <c r="F282" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G282" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H282" s="5">
@@ -9379,11 +9098,10 @@
         <v>0</v>
       </c>
       <c r="F283" s="6">
-        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G283" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H283" s="5">
@@ -9407,11 +9125,10 @@
         <v>0</v>
       </c>
       <c r="F284" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G284" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H284" s="5">
@@ -9435,11 +9152,10 @@
         <v>0</v>
       </c>
       <c r="F285" s="6">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G285" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H285" s="5">
@@ -9463,11 +9179,10 @@
         <v>0</v>
       </c>
       <c r="F286" s="6">
-        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G286" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H286" s="5">
@@ -9491,11 +9206,10 @@
         <v>0</v>
       </c>
       <c r="F287" s="6">
-        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G287" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H287" s="5">
@@ -9519,11 +9233,10 @@
         <v>0</v>
       </c>
       <c r="F288" s="6">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G288" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H288" s="5">
@@ -9547,11 +9260,10 @@
         <v>0</v>
       </c>
       <c r="F289" s="6">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G289" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H289" s="5">
@@ -9575,11 +9287,10 @@
         <v>1</v>
       </c>
       <c r="F290" s="6">
-        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G290" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>3.125</v>
       </c>
       <c r="H290" s="5">
@@ -9603,11 +9314,10 @@
         <v>0</v>
       </c>
       <c r="F291" s="6">
-        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G291" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H291" s="5">
@@ -9631,11 +9341,10 @@
         <v>0</v>
       </c>
       <c r="F292" s="6">
-        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G292" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H292" s="6">
@@ -9659,11 +9368,10 @@
         <v>0</v>
       </c>
       <c r="F293" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G293" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H293" s="6">
@@ -9687,11 +9395,10 @@
         <v>0</v>
       </c>
       <c r="F294" s="6">
-        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="G294" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H294" s="6">
@@ -9715,11 +9422,10 @@
         <v>1</v>
       </c>
       <c r="F295" s="6">
-        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G295" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2.4390243902439024</v>
       </c>
       <c r="H295" s="6">
@@ -9743,11 +9449,10 @@
         <v>0</v>
       </c>
       <c r="F296" s="6">
-        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G296" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H296" s="6">
@@ -9771,11 +9476,10 @@
         <v>0</v>
       </c>
       <c r="F297" s="6">
-        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G297" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H297" s="6">
@@ -9799,11 +9503,10 @@
         <v>0</v>
       </c>
       <c r="F298" s="6">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G298" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H298" s="6">
@@ -9827,11 +9530,10 @@
         <v>0</v>
       </c>
       <c r="F299" s="6">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G299" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H299" s="6">
@@ -9855,11 +9557,10 @@
         <v>0</v>
       </c>
       <c r="F300" s="6">
-        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G300" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H300" s="6">
@@ -9883,11 +9584,10 @@
         <v>0</v>
       </c>
       <c r="F301" s="6">
-        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="G301" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H301" s="6">
@@ -9911,11 +9611,10 @@
         <v>0</v>
       </c>
       <c r="F302" s="6">
-        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G302" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H302" s="6">
@@ -9939,11 +9638,10 @@
         <v>0</v>
       </c>
       <c r="F303" s="6">
-        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G303" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H303" s="6">
@@ -9967,11 +9665,10 @@
         <v>0</v>
       </c>
       <c r="F304" s="6">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G304" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H304" s="6">

--- a/finish/43/final.xlsx
+++ b/finish/43/final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUTC-IR\Desktop\irweb\ir12\finish\43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364425F-1841-48F2-B532-E718875B4674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFD1FA-7776-4794-9B07-0957EBAAAF2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1005" windowWidth="24420" windowHeight="13755" xr2:uid="{1B769D7F-0799-4642-A7F5-86811CB37C0B}"/>
   </bookViews>
@@ -1051,9 +1051,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1084,6 +1084,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1111,8 +1119,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,7 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1140,9 +1150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1456,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D433D116-92A0-6640-824B-AD1BD6E21A25}">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G304"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1525,7 @@
       <c r="F2" s="6">
         <v>8</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <f>(E2/H2)*100</f>
         <v>85.964912280701753</v>
       </c>
@@ -1540,7 +1552,7 @@
       <c r="F3" s="6">
         <v>52</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G66" si="0">(E3/H3)*100</f>
         <v>0</v>
       </c>
@@ -1567,7 +1579,7 @@
       <c r="F4" s="6">
         <v>55</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>3.5087719298245612</v>
       </c>
@@ -1594,7 +1606,7 @@
       <c r="F5" s="6">
         <v>39</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>15.217391304347828</v>
       </c>
@@ -1621,7 +1633,7 @@
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1648,7 +1660,7 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1675,7 +1687,7 @@
       <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1702,7 +1714,7 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1729,7 +1741,7 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1756,7 +1768,7 @@
       <c r="F11" s="6">
         <v>24</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>44.186046511627907</v>
       </c>
@@ -1783,7 +1795,7 @@
       <c r="F12" s="6">
         <v>7</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>85.106382978723403</v>
       </c>
@@ -1810,7 +1822,7 @@
       <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>93.181818181818173</v>
       </c>
@@ -1837,7 +1849,7 @@
       <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>93.61702127659575</v>
       </c>
@@ -1864,7 +1876,7 @@
       <c r="F15" s="6">
         <v>13</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>69.767441860465112</v>
       </c>
@@ -1891,7 +1903,7 @@
       <c r="F16" s="6">
         <v>14</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>67.441860465116278</v>
       </c>
@@ -1918,7 +1930,7 @@
       <c r="F17" s="6">
         <v>5</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>89.361702127659569</v>
       </c>
@@ -1945,7 +1957,7 @@
       <c r="F18" s="6">
         <v>8</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>78.378378378378372</v>
       </c>
@@ -1972,7 +1984,7 @@
       <c r="F19" s="6">
         <v>40</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>23.076923076923077</v>
       </c>
@@ -1999,7 +2011,7 @@
       <c r="F20" s="6">
         <v>48</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>5.8823529411764701</v>
       </c>
@@ -2026,7 +2038,7 @@
       <c r="F21" s="6">
         <v>58</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2053,7 +2065,7 @@
       <c r="F22" s="6">
         <v>55</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2080,7 +2092,7 @@
       <c r="F23" s="6">
         <v>44</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>18.518518518518519</v>
       </c>
@@ -2107,7 +2119,7 @@
       <c r="F24" s="6">
         <v>55</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="10">
         <f t="shared" si="0"/>
         <v>1.7857142857142856</v>
       </c>
@@ -2134,7 +2146,7 @@
       <c r="F25" s="6">
         <v>14</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2161,7 +2173,7 @@
       <c r="F26" s="6">
         <v>4</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2188,7 +2200,7 @@
       <c r="F27" s="6">
         <v>2</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2215,7 +2227,7 @@
       <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -2242,7 +2254,7 @@
       <c r="F29" s="6">
         <v>5</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>87.804878048780495</v>
       </c>
@@ -2269,7 +2281,7 @@
       <c r="F30" s="6">
         <v>38</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2296,7 +2308,7 @@
       <c r="F31" s="6">
         <v>27</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="10">
         <f t="shared" si="0"/>
         <v>34.146341463414636</v>
       </c>
@@ -2323,7 +2335,7 @@
       <c r="F32" s="6">
         <v>22</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>48.837209302325576</v>
       </c>
@@ -2350,7 +2362,7 @@
       <c r="F33" s="6">
         <v>34</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>19.047619047619047</v>
       </c>
@@ -2377,7 +2389,7 @@
       <c r="F34" s="6">
         <v>37</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>11.904761904761903</v>
       </c>
@@ -2404,7 +2416,7 @@
       <c r="F35" s="6">
         <v>5</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>88.095238095238088</v>
       </c>
@@ -2431,7 +2443,7 @@
       <c r="F36" s="6">
         <v>28</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="10">
         <f t="shared" si="0"/>
         <v>36.363636363636367</v>
       </c>
@@ -2458,7 +2470,7 @@
       <c r="F37" s="6">
         <v>27</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="10">
         <f t="shared" si="0"/>
         <v>34.146341463414636</v>
       </c>
@@ -2485,7 +2497,7 @@
       <c r="F38" s="6">
         <v>16</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>64.444444444444443</v>
       </c>
@@ -2512,7 +2524,7 @@
       <c r="F39" s="6">
         <v>2</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="10">
         <f t="shared" si="0"/>
         <v>71.428571428571431</v>
       </c>
@@ -2539,7 +2551,7 @@
       <c r="F40" s="6">
         <v>1</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2566,7 +2578,7 @@
       <c r="F41" s="6">
         <v>13</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="10">
         <f t="shared" si="0"/>
         <v>70.454545454545453</v>
       </c>
@@ -2593,7 +2605,7 @@
       <c r="F42" s="6">
         <v>44</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="10">
         <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
@@ -2620,7 +2632,7 @@
       <c r="F43" s="6">
         <v>18</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="10">
         <f t="shared" si="0"/>
         <v>56.09756097560976</v>
       </c>
@@ -2647,7 +2659,7 @@
       <c r="F44" s="6">
         <v>1</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="10">
         <f t="shared" si="0"/>
         <v>97.61904761904762</v>
       </c>
@@ -2674,7 +2686,7 @@
       <c r="F45" s="6">
         <v>10</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="10">
         <f t="shared" si="0"/>
         <v>76.19047619047619</v>
       </c>
@@ -2701,7 +2713,7 @@
       <c r="F46" s="6">
         <v>13</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="10">
         <f t="shared" si="0"/>
         <v>68.292682926829272</v>
       </c>
@@ -2728,7 +2740,7 @@
       <c r="F47" s="6">
         <v>1</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="10">
         <f t="shared" si="0"/>
         <v>97.058823529411768</v>
       </c>
@@ -2755,7 +2767,7 @@
       <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2782,7 +2794,7 @@
       <c r="F49" s="6">
         <v>30</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
@@ -2809,7 +2821,7 @@
       <c r="F50" s="6">
         <v>37</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="10">
         <f t="shared" si="0"/>
         <v>21.276595744680851</v>
       </c>
@@ -2836,7 +2848,7 @@
       <c r="F51" s="6">
         <v>46</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2863,7 +2875,7 @@
       <c r="F52" s="6">
         <v>4</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2890,7 +2902,7 @@
       <c r="F53" s="6">
         <v>1</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="10">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
@@ -2917,7 +2929,7 @@
       <c r="F54" s="6">
         <v>2</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
@@ -2944,7 +2956,7 @@
       <c r="F55" s="6">
         <v>11</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="10">
         <f t="shared" si="0"/>
         <v>77.551020408163268</v>
       </c>
@@ -2971,7 +2983,7 @@
       <c r="F56" s="6">
         <v>29</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="10">
         <f t="shared" si="0"/>
         <v>39.583333333333329</v>
       </c>
@@ -2998,7 +3010,7 @@
       <c r="F57" s="6">
         <v>55</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3025,7 +3037,7 @@
       <c r="F58" s="6">
         <v>11</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="10">
         <f t="shared" si="0"/>
         <v>76.59574468085107</v>
       </c>
@@ -3052,7 +3064,7 @@
       <c r="F59" s="6">
         <v>11</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="10">
         <f t="shared" si="0"/>
         <v>21.428571428571427</v>
       </c>
@@ -3079,7 +3091,7 @@
       <c r="F60" s="6">
         <v>0</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3106,7 +3118,7 @@
       <c r="F61" s="6">
         <v>43</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="10">
         <f t="shared" si="0"/>
         <v>8.5106382978723403</v>
       </c>
@@ -3133,7 +3145,7 @@
       <c r="F62" s="6">
         <v>39</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3160,7 +3172,7 @@
       <c r="F63" s="6">
         <v>6</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="10">
         <f t="shared" si="0"/>
         <v>86.04651162790698</v>
       </c>
@@ -3187,7 +3199,7 @@
       <c r="F64" s="6">
         <v>10</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3214,11 +3226,11 @@
       <c r="F65" s="6">
         <v>40</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="10">
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="7">
         <v>44</v>
       </c>
     </row>
@@ -3241,11 +3253,11 @@
       <c r="F66" s="6">
         <v>53</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="7">
         <v>53</v>
       </c>
     </row>
@@ -3268,11 +3280,11 @@
       <c r="F67" s="6">
         <v>16</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="10">
         <f t="shared" ref="G67:G130" si="1">(E67/H67)*100</f>
         <v>60.975609756097562</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="7">
         <v>41</v>
       </c>
     </row>
@@ -3295,11 +3307,11 @@
       <c r="F68" s="6">
         <v>34</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="10">
         <f t="shared" si="1"/>
         <v>27.659574468085108</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="7">
         <v>47</v>
       </c>
     </row>
@@ -3322,11 +3334,11 @@
       <c r="F69" s="6">
         <v>45</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="10">
         <f t="shared" si="1"/>
         <v>8.1632653061224492</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="7">
         <v>49</v>
       </c>
     </row>
@@ -3349,11 +3361,11 @@
       <c r="F70" s="6">
         <v>57</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="7">
         <v>57</v>
       </c>
     </row>
@@ -3376,7 +3388,7 @@
       <c r="F71" s="6">
         <v>0</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3403,7 +3415,7 @@
       <c r="F72" s="6">
         <v>4</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3430,7 +3442,7 @@
       <c r="F73" s="6">
         <v>1</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3457,7 +3469,7 @@
       <c r="F74" s="6">
         <v>28</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="10">
         <f t="shared" si="1"/>
         <v>42.857142857142854</v>
       </c>
@@ -3484,7 +3496,7 @@
       <c r="F75" s="6">
         <v>37</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="10">
         <f t="shared" si="1"/>
         <v>17.777777777777779</v>
       </c>
@@ -3511,7 +3523,7 @@
       <c r="F76" s="6">
         <v>49</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3538,7 +3550,7 @@
       <c r="F77" s="6">
         <v>26</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="10">
         <f t="shared" si="1"/>
         <v>45.833333333333329</v>
       </c>
@@ -3565,7 +3577,7 @@
       <c r="F78" s="6">
         <v>3</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="10">
         <f t="shared" si="1"/>
         <v>94.444444444444443</v>
       </c>
@@ -3592,7 +3604,7 @@
       <c r="F79" s="6">
         <v>19</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="10">
         <f t="shared" si="1"/>
         <v>62.745098039215684</v>
       </c>
@@ -3619,7 +3631,7 @@
       <c r="F80" s="6">
         <v>2</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="10">
         <f t="shared" si="1"/>
         <v>88.235294117647058</v>
       </c>
@@ -3646,7 +3658,7 @@
       <c r="F81" s="6">
         <v>1</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3673,7 +3685,7 @@
       <c r="F82" s="6">
         <v>11</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3700,7 +3712,7 @@
       <c r="F83" s="6">
         <v>4</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3727,7 +3739,7 @@
       <c r="F84" s="6">
         <v>32</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="10">
         <f t="shared" si="1"/>
         <v>41.818181818181813</v>
       </c>
@@ -3754,7 +3766,7 @@
       <c r="F85" s="6">
         <v>53</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="10">
         <f t="shared" si="1"/>
         <v>8.6206896551724146</v>
       </c>
@@ -3781,7 +3793,7 @@
       <c r="F86" s="6">
         <v>57</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3808,7 +3820,7 @@
       <c r="F87" s="6">
         <v>51</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3835,7 +3847,7 @@
       <c r="F88" s="6">
         <v>12</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -3862,7 +3874,7 @@
       <c r="F89" s="6">
         <v>7</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3889,7 +3901,7 @@
       <c r="F90" s="6">
         <v>2</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3916,7 +3928,7 @@
       <c r="F91" s="6">
         <v>0</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3943,7 +3955,7 @@
       <c r="F92" s="6">
         <v>1</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3970,7 +3982,7 @@
       <c r="F93" s="6">
         <v>4</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="10">
         <f t="shared" si="1"/>
         <v>85.18518518518519</v>
       </c>
@@ -3997,7 +4009,7 @@
       <c r="F94" s="6">
         <v>16</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="10">
         <f t="shared" si="1"/>
         <v>65.957446808510639</v>
       </c>
@@ -4024,7 +4036,7 @@
       <c r="F95" s="6">
         <v>46</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="10">
         <f t="shared" si="1"/>
         <v>6.1224489795918364</v>
       </c>
@@ -4051,7 +4063,7 @@
       <c r="F96" s="6">
         <v>35</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="10">
         <f t="shared" si="1"/>
         <v>28.571428571428569</v>
       </c>
@@ -4078,7 +4090,7 @@
       <c r="F97" s="6">
         <v>13</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="10">
         <f t="shared" si="1"/>
         <v>69.047619047619051</v>
       </c>
@@ -4105,7 +4117,7 @@
       <c r="F98" s="6">
         <v>44</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4132,7 +4144,7 @@
       <c r="F99" s="6">
         <v>37</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="10">
         <f t="shared" si="1"/>
         <v>21.276595744680851</v>
       </c>
@@ -4159,7 +4171,7 @@
       <c r="F100" s="6">
         <v>4</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="10">
         <f t="shared" si="1"/>
         <v>91.489361702127653</v>
       </c>
@@ -4186,7 +4198,7 @@
       <c r="F101" s="6">
         <v>27</v>
       </c>
-      <c r="G101" s="7">
+      <c r="G101" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
@@ -4213,7 +4225,7 @@
       <c r="F102" s="6">
         <v>1</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102" s="10">
         <f t="shared" si="1"/>
         <v>97.872340425531917</v>
       </c>
@@ -4240,7 +4252,7 @@
       <c r="F103" s="6">
         <v>34</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103" s="10">
         <f t="shared" si="1"/>
         <v>38.181818181818187</v>
       </c>
@@ -4267,7 +4279,7 @@
       <c r="F104" s="6">
         <v>29</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="10">
         <f t="shared" si="1"/>
         <v>40.816326530612244</v>
       </c>
@@ -4294,7 +4306,7 @@
       <c r="F105" s="6">
         <v>9</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105" s="10">
         <f t="shared" si="1"/>
         <v>75.675675675675677</v>
       </c>
@@ -4321,7 +4333,7 @@
       <c r="F106" s="6">
         <v>0</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4348,7 +4360,7 @@
       <c r="F107" s="6">
         <v>43</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107" s="10">
         <f t="shared" si="1"/>
         <v>14.000000000000002</v>
       </c>
@@ -4375,7 +4387,7 @@
       <c r="F108" s="6">
         <v>25</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108" s="10">
         <f t="shared" si="1"/>
         <v>40.476190476190474</v>
       </c>
@@ -4402,7 +4414,7 @@
       <c r="F109" s="6">
         <v>15</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109" s="10">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
@@ -4429,7 +4441,7 @@
       <c r="F110" s="6">
         <v>10</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G110" s="10">
         <f t="shared" si="1"/>
         <v>78.723404255319153</v>
       </c>
@@ -4456,7 +4468,7 @@
       <c r="F111" s="6">
         <v>46</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4483,7 +4495,7 @@
       <c r="F112" s="6">
         <v>1</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G112" s="10">
         <f t="shared" si="1"/>
         <v>97.777777777777771</v>
       </c>
@@ -4510,7 +4522,7 @@
       <c r="F113" s="6">
         <v>12</v>
       </c>
-      <c r="G113" s="7">
+      <c r="G113" s="10">
         <f t="shared" si="1"/>
         <v>73.91304347826086</v>
       </c>
@@ -4537,7 +4549,7 @@
       <c r="F114" s="6">
         <v>47</v>
       </c>
-      <c r="G114" s="7">
+      <c r="G114" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4564,7 +4576,7 @@
       <c r="F115" s="6">
         <v>23</v>
       </c>
-      <c r="G115" s="7">
+      <c r="G115" s="10">
         <f t="shared" si="1"/>
         <v>46.511627906976742</v>
       </c>
@@ -4591,7 +4603,7 @@
       <c r="F116" s="6">
         <v>45</v>
       </c>
-      <c r="G116" s="7">
+      <c r="G116" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4618,7 +4630,7 @@
       <c r="F117" s="6">
         <v>11</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G117" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4645,7 +4657,7 @@
       <c r="F118" s="6">
         <v>3</v>
       </c>
-      <c r="G118" s="7">
+      <c r="G118" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4672,7 +4684,7 @@
       <c r="F119" s="6">
         <v>1</v>
       </c>
-      <c r="G119" s="7">
+      <c r="G119" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4699,7 +4711,7 @@
       <c r="F120" s="6">
         <v>8</v>
       </c>
-      <c r="G120" s="7">
+      <c r="G120" s="10">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
@@ -4726,7 +4738,7 @@
       <c r="F121" s="6">
         <v>2</v>
       </c>
-      <c r="G121" s="7">
+      <c r="G121" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4753,7 +4765,7 @@
       <c r="F122" s="6">
         <v>3</v>
       </c>
-      <c r="G122" s="7">
+      <c r="G122" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4780,7 +4792,7 @@
       <c r="F123" s="6">
         <v>5</v>
       </c>
-      <c r="G123" s="7">
+      <c r="G123" s="10">
         <f t="shared" si="1"/>
         <v>87.804878048780495</v>
       </c>
@@ -4807,7 +4819,7 @@
       <c r="F124" s="6">
         <v>37</v>
       </c>
-      <c r="G124" s="7">
+      <c r="G124" s="10">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
@@ -4834,7 +4846,7 @@
       <c r="F125" s="6">
         <v>6</v>
       </c>
-      <c r="G125" s="7">
+      <c r="G125" s="10">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -4861,7 +4873,7 @@
       <c r="F126" s="6">
         <v>11</v>
       </c>
-      <c r="G126" s="7">
+      <c r="G126" s="10">
         <f t="shared" si="1"/>
         <v>73.80952380952381</v>
       </c>
@@ -4888,7 +4900,7 @@
       <c r="F127" s="6">
         <v>44</v>
       </c>
-      <c r="G127" s="7">
+      <c r="G127" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4915,7 +4927,7 @@
       <c r="F128" s="6">
         <v>7</v>
       </c>
-      <c r="G128" s="7">
+      <c r="G128" s="10">
         <f t="shared" si="1"/>
         <v>84.090909090909093</v>
       </c>
@@ -4942,7 +4954,7 @@
       <c r="F129" s="6">
         <v>7</v>
       </c>
-      <c r="G129" s="7">
+      <c r="G129" s="10">
         <f t="shared" si="1"/>
         <v>82.926829268292678</v>
       </c>
@@ -4969,7 +4981,7 @@
       <c r="F130" s="6">
         <v>20</v>
       </c>
-      <c r="G130" s="7">
+      <c r="G130" s="10">
         <f t="shared" si="1"/>
         <v>52.380952380952387</v>
       </c>
@@ -4996,7 +5008,7 @@
       <c r="F131" s="6">
         <v>46</v>
       </c>
-      <c r="G131" s="7">
+      <c r="G131" s="10">
         <f t="shared" ref="G131:G194" si="2">(E131/H131)*100</f>
         <v>6.1224489795918364</v>
       </c>
@@ -5023,7 +5035,7 @@
       <c r="F132" s="6">
         <v>6</v>
       </c>
-      <c r="G132" s="7">
+      <c r="G132" s="10">
         <f t="shared" si="2"/>
         <v>86.04651162790698</v>
       </c>
@@ -5050,7 +5062,7 @@
       <c r="F133" s="6">
         <v>10</v>
       </c>
-      <c r="G133" s="7">
+      <c r="G133" s="10">
         <f t="shared" si="2"/>
         <v>65.517241379310349</v>
       </c>
@@ -5077,7 +5089,7 @@
       <c r="F134" s="6">
         <v>17</v>
       </c>
-      <c r="G134" s="7">
+      <c r="G134" s="10">
         <f t="shared" si="2"/>
         <v>45.161290322580641</v>
       </c>
@@ -5104,7 +5116,7 @@
       <c r="F135" s="6">
         <v>70</v>
       </c>
-      <c r="G135" s="7">
+      <c r="G135" s="10">
         <f t="shared" si="2"/>
         <v>1.4084507042253522</v>
       </c>
@@ -5131,7 +5143,7 @@
       <c r="F136" s="6">
         <v>1</v>
       </c>
-      <c r="G136" s="7">
+      <c r="G136" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5158,7 +5170,7 @@
       <c r="F137" s="6">
         <v>9</v>
       </c>
-      <c r="G137" s="7">
+      <c r="G137" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -5185,7 +5197,7 @@
       <c r="F138" s="6">
         <v>12</v>
       </c>
-      <c r="G138" s="7">
+      <c r="G138" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5212,7 +5224,7 @@
       <c r="F139" s="6">
         <v>6</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5239,7 +5251,7 @@
       <c r="F140" s="6">
         <v>4</v>
       </c>
-      <c r="G140" s="7">
+      <c r="G140" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5266,7 +5278,7 @@
       <c r="F141" s="6">
         <v>19</v>
       </c>
-      <c r="G141" s="7">
+      <c r="G141" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5293,7 +5305,7 @@
       <c r="F142" s="6">
         <v>6</v>
       </c>
-      <c r="G142" s="7">
+      <c r="G142" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5320,7 +5332,7 @@
       <c r="F143" s="6">
         <v>17</v>
       </c>
-      <c r="G143" s="7">
+      <c r="G143" s="10">
         <f t="shared" si="2"/>
         <v>64.583333333333343</v>
       </c>
@@ -5347,7 +5359,7 @@
       <c r="F144" s="6">
         <v>5</v>
       </c>
-      <c r="G144" s="7">
+      <c r="G144" s="10">
         <f t="shared" si="2"/>
         <v>88.888888888888886</v>
       </c>
@@ -5374,7 +5386,7 @@
       <c r="F145" s="6">
         <v>26</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145" s="10">
         <f t="shared" si="2"/>
         <v>44.680851063829785</v>
       </c>
@@ -5401,7 +5413,7 @@
       <c r="F146" s="6">
         <v>19</v>
       </c>
-      <c r="G146" s="7">
+      <c r="G146" s="10">
         <f t="shared" si="2"/>
         <v>58.695652173913047</v>
       </c>
@@ -5428,7 +5440,7 @@
       <c r="F147" s="6">
         <v>7</v>
       </c>
-      <c r="G147" s="7">
+      <c r="G147" s="10">
         <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
@@ -5455,7 +5467,7 @@
       <c r="F148" s="6">
         <v>5</v>
       </c>
-      <c r="G148" s="7">
+      <c r="G148" s="10">
         <f t="shared" si="2"/>
         <v>90.740740740740748</v>
       </c>
@@ -5482,7 +5494,7 @@
       <c r="F149" s="6">
         <v>17</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G149" s="10">
         <f t="shared" si="2"/>
         <v>63.04347826086957</v>
       </c>
@@ -5509,7 +5521,7 @@
       <c r="F150" s="6">
         <v>44</v>
       </c>
-      <c r="G150" s="7">
+      <c r="G150" s="10">
         <f t="shared" si="2"/>
         <v>21.428571428571427</v>
       </c>
@@ -5531,14 +5543,14 @@
         <v>188</v>
       </c>
       <c r="E151" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F151" s="6">
-        <v>50</v>
-      </c>
-      <c r="G151" s="7">
+        <v>49</v>
+      </c>
+      <c r="G151" s="10">
         <f t="shared" si="2"/>
-        <v>10.714285714285714</v>
+        <v>12.5</v>
       </c>
       <c r="H151" s="6">
         <v>56</v>
@@ -5563,7 +5575,7 @@
       <c r="F152" s="6">
         <v>12</v>
       </c>
-      <c r="G152" s="7">
+      <c r="G152" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5590,7 +5602,7 @@
       <c r="F153" s="6">
         <v>4</v>
       </c>
-      <c r="G153" s="7">
+      <c r="G153" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5617,7 +5629,7 @@
       <c r="F154" s="6">
         <v>1</v>
       </c>
-      <c r="G154" s="7">
+      <c r="G154" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5644,7 +5656,7 @@
       <c r="F155" s="6">
         <v>11</v>
       </c>
-      <c r="G155" s="7">
+      <c r="G155" s="10">
         <f t="shared" si="2"/>
         <v>26.666666666666668</v>
       </c>
@@ -5671,7 +5683,7 @@
       <c r="F156" s="6">
         <v>1</v>
       </c>
-      <c r="G156" s="7">
+      <c r="G156" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5698,7 +5710,7 @@
       <c r="F157" s="6">
         <v>0</v>
       </c>
-      <c r="G157" s="7">
+      <c r="G157" s="10">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -5725,7 +5737,7 @@
       <c r="F158" s="6">
         <v>0</v>
       </c>
-      <c r="G158" s="7">
+      <c r="G158" s="10">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -5752,7 +5764,7 @@
       <c r="F159" s="6">
         <v>22</v>
       </c>
-      <c r="G159" s="7">
+      <c r="G159" s="10">
         <f t="shared" si="2"/>
         <v>46.341463414634148</v>
       </c>
@@ -5779,7 +5791,7 @@
       <c r="F160" s="6">
         <v>1</v>
       </c>
-      <c r="G160" s="7">
+      <c r="G160" s="10">
         <f t="shared" si="2"/>
         <v>96.875</v>
       </c>
@@ -5806,7 +5818,7 @@
       <c r="F161" s="6">
         <v>18</v>
       </c>
-      <c r="G161" s="7">
+      <c r="G161" s="10">
         <f t="shared" si="2"/>
         <v>58.139534883720934</v>
       </c>
@@ -5833,7 +5845,7 @@
       <c r="F162" s="6">
         <v>16</v>
       </c>
-      <c r="G162" s="7">
+      <c r="G162" s="10">
         <f t="shared" si="2"/>
         <v>60.975609756097562</v>
       </c>
@@ -5860,7 +5872,7 @@
       <c r="F163" s="6">
         <v>6</v>
       </c>
-      <c r="G163" s="7">
+      <c r="G163" s="10">
         <f t="shared" si="2"/>
         <v>82.857142857142861</v>
       </c>
@@ -5887,7 +5899,7 @@
       <c r="F164" s="6">
         <v>43</v>
       </c>
-      <c r="G164" s="7">
+      <c r="G164" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5914,7 +5926,7 @@
       <c r="F165" s="6">
         <v>29</v>
       </c>
-      <c r="G165" s="7">
+      <c r="G165" s="10">
         <f t="shared" si="2"/>
         <v>29.268292682926827</v>
       </c>
@@ -5941,7 +5953,7 @@
       <c r="F166" s="6">
         <v>35</v>
       </c>
-      <c r="G166" s="7">
+      <c r="G166" s="10">
         <f t="shared" si="2"/>
         <v>22.222222222222221</v>
       </c>
@@ -5968,7 +5980,7 @@
       <c r="F167" s="6">
         <v>14</v>
       </c>
-      <c r="G167" s="7">
+      <c r="G167" s="10">
         <f t="shared" si="2"/>
         <v>70.833333333333343</v>
       </c>
@@ -5995,7 +6007,7 @@
       <c r="F168" s="6">
         <v>34</v>
       </c>
-      <c r="G168" s="7">
+      <c r="G168" s="10">
         <f t="shared" si="2"/>
         <v>17.073170731707318</v>
       </c>
@@ -6022,7 +6034,7 @@
       <c r="F169" s="6">
         <v>12</v>
       </c>
-      <c r="G169" s="7">
+      <c r="G169" s="10">
         <f t="shared" si="2"/>
         <v>72.727272727272734</v>
       </c>
@@ -6049,7 +6061,7 @@
       <c r="F170" s="6">
         <v>25</v>
       </c>
-      <c r="G170" s="7">
+      <c r="G170" s="10">
         <f t="shared" si="2"/>
         <v>43.18181818181818</v>
       </c>
@@ -6076,7 +6088,7 @@
       <c r="F171" s="6">
         <v>47</v>
       </c>
-      <c r="G171" s="7">
+      <c r="G171" s="10">
         <f t="shared" si="2"/>
         <v>20.33898305084746</v>
       </c>
@@ -6103,7 +6115,7 @@
       <c r="F172" s="6">
         <v>8</v>
       </c>
-      <c r="G172" s="7">
+      <c r="G172" s="10">
         <f t="shared" si="2"/>
         <v>80.952380952380949</v>
       </c>
@@ -6130,7 +6142,7 @@
       <c r="F173" s="6">
         <v>10</v>
       </c>
-      <c r="G173" s="7">
+      <c r="G173" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6157,7 +6169,7 @@
       <c r="F174" s="6">
         <v>5</v>
       </c>
-      <c r="G174" s="7">
+      <c r="G174" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6184,7 +6196,7 @@
       <c r="F175" s="6">
         <v>1</v>
       </c>
-      <c r="G175" s="7">
+      <c r="G175" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6211,7 +6223,7 @@
       <c r="F176" s="6">
         <v>8</v>
       </c>
-      <c r="G176" s="7">
+      <c r="G176" s="10">
         <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
@@ -6233,14 +6245,14 @@
         <v>223</v>
       </c>
       <c r="E177" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" s="6">
-        <v>44</v>
-      </c>
-      <c r="G177" s="7">
+        <v>43</v>
+      </c>
+      <c r="G177" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="H177" s="6">
         <v>44</v>
@@ -6265,7 +6277,7 @@
       <c r="F178" s="6">
         <v>14</v>
       </c>
-      <c r="G178" s="7">
+      <c r="G178" s="10">
         <f t="shared" si="2"/>
         <v>73.584905660377359</v>
       </c>
@@ -6292,7 +6304,7 @@
       <c r="F179" s="6">
         <v>0</v>
       </c>
-      <c r="G179" s="7">
+      <c r="G179" s="10">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6319,7 +6331,7 @@
       <c r="F180" s="6">
         <v>5</v>
       </c>
-      <c r="G180" s="7">
+      <c r="G180" s="10">
         <f t="shared" si="2"/>
         <v>89.583333333333343</v>
       </c>
@@ -6346,7 +6358,7 @@
       <c r="F181" s="6">
         <v>21</v>
       </c>
-      <c r="G181" s="7">
+      <c r="G181" s="10">
         <f t="shared" si="2"/>
         <v>55.319148936170215</v>
       </c>
@@ -6373,7 +6385,7 @@
       <c r="F182" s="6">
         <v>53</v>
       </c>
-      <c r="G182" s="7">
+      <c r="G182" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6400,7 +6412,7 @@
       <c r="F183" s="6">
         <v>13</v>
       </c>
-      <c r="G183" s="7">
+      <c r="G183" s="10">
         <f t="shared" si="2"/>
         <v>70.454545454545453</v>
       </c>
@@ -6427,7 +6439,7 @@
       <c r="F184" s="6">
         <v>21</v>
       </c>
-      <c r="G184" s="7">
+      <c r="G184" s="10">
         <f t="shared" si="2"/>
         <v>60.377358490566039</v>
       </c>
@@ -6454,7 +6466,7 @@
       <c r="F185" s="6">
         <v>15</v>
       </c>
-      <c r="G185" s="7">
+      <c r="G185" s="10">
         <f t="shared" si="2"/>
         <v>74.137931034482762</v>
       </c>
@@ -6481,7 +6493,7 @@
       <c r="F186" s="6">
         <v>27</v>
       </c>
-      <c r="G186" s="7">
+      <c r="G186" s="10">
         <f t="shared" si="2"/>
         <v>53.448275862068961</v>
       </c>
@@ -6508,7 +6520,7 @@
       <c r="F187" s="6">
         <v>50</v>
       </c>
-      <c r="G187" s="7">
+      <c r="G187" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6535,7 +6547,7 @@
       <c r="F188" s="6">
         <v>19</v>
       </c>
-      <c r="G188" s="7">
+      <c r="G188" s="10">
         <f t="shared" si="2"/>
         <v>54.761904761904766</v>
       </c>
@@ -6562,7 +6574,7 @@
       <c r="F189" s="6">
         <v>2</v>
       </c>
-      <c r="G189" s="7">
+      <c r="G189" s="10">
         <f t="shared" si="2"/>
         <v>95.238095238095227</v>
       </c>
@@ -6589,7 +6601,7 @@
       <c r="F190" s="6">
         <v>15</v>
       </c>
-      <c r="G190" s="7">
+      <c r="G190" s="10">
         <f t="shared" si="2"/>
         <v>63.414634146341463</v>
       </c>
@@ -6616,7 +6628,7 @@
       <c r="F191" s="6">
         <v>29</v>
       </c>
-      <c r="G191" s="7">
+      <c r="G191" s="10">
         <f t="shared" si="2"/>
         <v>25.641025641025639</v>
       </c>
@@ -6643,7 +6655,7 @@
       <c r="F192" s="6">
         <v>0</v>
       </c>
-      <c r="G192" s="7">
+      <c r="G192" s="10">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6670,7 +6682,7 @@
       <c r="F193" s="6">
         <v>5</v>
       </c>
-      <c r="G193" s="7">
+      <c r="G193" s="10">
         <f t="shared" si="2"/>
         <v>87.804878048780495</v>
       </c>
@@ -6697,7 +6709,7 @@
       <c r="F194" s="6">
         <v>2</v>
       </c>
-      <c r="G194" s="7">
+      <c r="G194" s="10">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
@@ -6724,7 +6736,7 @@
       <c r="F195" s="6">
         <v>23</v>
       </c>
-      <c r="G195" s="7">
+      <c r="G195" s="10">
         <f t="shared" ref="G195:G258" si="3">(E195/H195)*100</f>
         <v>45.238095238095241</v>
       </c>
@@ -6751,7 +6763,7 @@
       <c r="F196" s="6">
         <v>18</v>
       </c>
-      <c r="G196" s="7">
+      <c r="G196" s="10">
         <f t="shared" si="3"/>
         <v>51.351351351351347</v>
       </c>
@@ -6772,17 +6784,17 @@
       <c r="D197" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E197" s="9">
+      <c r="E197" s="8">
         <v>21</v>
       </c>
       <c r="F197" s="6">
         <v>25</v>
       </c>
-      <c r="G197" s="7">
+      <c r="G197" s="10">
         <f t="shared" si="3"/>
         <v>45.652173913043477</v>
       </c>
-      <c r="H197" s="8">
+      <c r="H197" s="7">
         <v>46</v>
       </c>
     </row>
@@ -6799,17 +6811,17 @@
       <c r="D198" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198" s="8">
         <v>42</v>
       </c>
       <c r="F198" s="6">
         <v>1</v>
       </c>
-      <c r="G198" s="7">
+      <c r="G198" s="10">
         <f t="shared" si="3"/>
         <v>97.674418604651152</v>
       </c>
-      <c r="H198" s="9">
+      <c r="H198" s="8">
         <v>43</v>
       </c>
     </row>
@@ -6826,17 +6838,17 @@
       <c r="D199" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E199" s="9">
+      <c r="E199" s="8">
         <v>40</v>
       </c>
       <c r="F199" s="6">
         <v>5</v>
       </c>
-      <c r="G199" s="7">
+      <c r="G199" s="10">
         <f t="shared" si="3"/>
         <v>88.888888888888886</v>
       </c>
-      <c r="H199" s="9">
+      <c r="H199" s="8">
         <v>45</v>
       </c>
     </row>
@@ -6853,17 +6865,17 @@
       <c r="D200" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E200" s="9">
+      <c r="E200" s="8">
         <v>15</v>
       </c>
       <c r="F200" s="6">
         <v>26</v>
       </c>
-      <c r="G200" s="7">
+      <c r="G200" s="10">
         <f t="shared" si="3"/>
         <v>36.585365853658537</v>
       </c>
-      <c r="H200" s="9">
+      <c r="H200" s="8">
         <v>41</v>
       </c>
     </row>
@@ -6880,17 +6892,17 @@
       <c r="D201" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E201" s="9">
+      <c r="E201" s="8">
         <v>0</v>
       </c>
       <c r="F201" s="6">
         <v>39</v>
       </c>
-      <c r="G201" s="7">
+      <c r="G201" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H201" s="9">
+      <c r="H201" s="8">
         <v>39</v>
       </c>
     </row>
@@ -6907,17 +6919,17 @@
       <c r="D202" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E202" s="9">
+      <c r="E202" s="8">
         <v>0</v>
       </c>
       <c r="F202" s="6">
         <v>9</v>
       </c>
-      <c r="G202" s="7">
+      <c r="G202" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H202" s="9">
+      <c r="H202" s="8">
         <v>9</v>
       </c>
     </row>
@@ -6934,17 +6946,17 @@
       <c r="D203" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="8">
         <v>0</v>
       </c>
       <c r="F203" s="6">
         <v>7</v>
       </c>
-      <c r="G203" s="7">
+      <c r="G203" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H203" s="9">
+      <c r="H203" s="8">
         <v>7</v>
       </c>
     </row>
@@ -6961,17 +6973,17 @@
       <c r="D204" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="8">
         <v>0</v>
       </c>
       <c r="F204" s="6">
         <v>4</v>
       </c>
-      <c r="G204" s="7">
+      <c r="G204" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H204" s="8">
+      <c r="H204" s="7">
         <v>4</v>
       </c>
     </row>
@@ -6994,7 +7006,7 @@
       <c r="F205" s="6">
         <v>1</v>
       </c>
-      <c r="G205" s="7">
+      <c r="G205" s="10">
         <f t="shared" si="3"/>
         <v>98.076923076923066</v>
       </c>
@@ -7021,7 +7033,7 @@
       <c r="F206" s="6">
         <v>4</v>
       </c>
-      <c r="G206" s="7">
+      <c r="G206" s="10">
         <f t="shared" si="3"/>
         <v>92.452830188679243</v>
       </c>
@@ -7048,7 +7060,7 @@
       <c r="F207" s="6">
         <v>19</v>
       </c>
-      <c r="G207" s="7">
+      <c r="G207" s="10">
         <f t="shared" si="3"/>
         <v>62.745098039215684</v>
       </c>
@@ -7075,7 +7087,7 @@
       <c r="F208" s="6">
         <v>4</v>
       </c>
-      <c r="G208" s="7">
+      <c r="G208" s="10">
         <f t="shared" si="3"/>
         <v>92.72727272727272</v>
       </c>
@@ -7102,7 +7114,7 @@
       <c r="F209" s="6">
         <v>21</v>
       </c>
-      <c r="G209" s="7">
+      <c r="G209" s="10">
         <f t="shared" si="3"/>
         <v>57.142857142857139</v>
       </c>
@@ -7129,7 +7141,7 @@
       <c r="F210" s="6">
         <v>14</v>
       </c>
-      <c r="G210" s="7">
+      <c r="G210" s="10">
         <f t="shared" si="3"/>
         <v>74.074074074074076</v>
       </c>
@@ -7156,7 +7168,7 @@
       <c r="F211" s="6">
         <v>50</v>
       </c>
-      <c r="G211" s="7">
+      <c r="G211" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7183,7 +7195,7 @@
       <c r="F212" s="6">
         <v>4</v>
       </c>
-      <c r="G212" s="7">
+      <c r="G212" s="10">
         <f t="shared" si="3"/>
         <v>92.156862745098039</v>
       </c>
@@ -7210,7 +7222,7 @@
       <c r="F213" s="6">
         <v>36</v>
       </c>
-      <c r="G213" s="7">
+      <c r="G213" s="10">
         <f t="shared" si="3"/>
         <v>2.7027027027027026</v>
       </c>
@@ -7237,7 +7249,7 @@
       <c r="F214" s="6">
         <v>10</v>
       </c>
-      <c r="G214" s="7">
+      <c r="G214" s="10">
         <f t="shared" si="3"/>
         <v>68.75</v>
       </c>
@@ -7259,14 +7271,14 @@
         <v>13</v>
       </c>
       <c r="E215" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F215" s="6">
-        <v>40</v>
-      </c>
-      <c r="G215" s="7">
+        <v>39</v>
+      </c>
+      <c r="G215" s="10">
         <f t="shared" si="3"/>
-        <v>6.9767441860465116</v>
+        <v>9.3023255813953494</v>
       </c>
       <c r="H215" s="6">
         <v>43</v>
@@ -7291,7 +7303,7 @@
       <c r="F216" s="6">
         <v>38</v>
       </c>
-      <c r="G216" s="7">
+      <c r="G216" s="10">
         <f t="shared" si="3"/>
         <v>7.3170731707317067</v>
       </c>
@@ -7318,7 +7330,7 @@
       <c r="F217" s="6">
         <v>14</v>
       </c>
-      <c r="G217" s="7">
+      <c r="G217" s="10">
         <f t="shared" si="3"/>
         <v>68.888888888888886</v>
       </c>
@@ -7345,7 +7357,7 @@
       <c r="F218" s="6">
         <v>41</v>
       </c>
-      <c r="G218" s="7">
+      <c r="G218" s="10">
         <f t="shared" si="3"/>
         <v>16.326530612244898</v>
       </c>
@@ -7372,7 +7384,7 @@
       <c r="F219" s="6">
         <v>44</v>
       </c>
-      <c r="G219" s="7">
+      <c r="G219" s="10">
         <f t="shared" si="3"/>
         <v>4.3478260869565215</v>
       </c>
@@ -7399,7 +7411,7 @@
       <c r="F220" s="6">
         <v>35</v>
       </c>
-      <c r="G220" s="7">
+      <c r="G220" s="10">
         <f t="shared" si="3"/>
         <v>7.8947368421052628</v>
       </c>
@@ -7426,7 +7438,7 @@
       <c r="F221" s="6">
         <v>36</v>
       </c>
-      <c r="G221" s="7">
+      <c r="G221" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7453,7 +7465,7 @@
       <c r="F222" s="6">
         <v>33</v>
       </c>
-      <c r="G222" s="7">
+      <c r="G222" s="10">
         <f t="shared" si="3"/>
         <v>2.9411764705882351</v>
       </c>
@@ -7480,7 +7492,7 @@
       <c r="F223" s="6">
         <v>34</v>
       </c>
-      <c r="G223" s="7">
+      <c r="G223" s="10">
         <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
@@ -7507,7 +7519,7 @@
       <c r="F224" s="6">
         <v>1</v>
       </c>
-      <c r="G224" s="7">
+      <c r="G224" s="10">
         <f t="shared" si="3"/>
         <v>96.774193548387103</v>
       </c>
@@ -7534,7 +7546,7 @@
       <c r="F225" s="6">
         <v>14</v>
       </c>
-      <c r="G225" s="7">
+      <c r="G225" s="10">
         <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
@@ -7561,7 +7573,7 @@
       <c r="F226" s="6">
         <v>27</v>
       </c>
-      <c r="G226" s="7">
+      <c r="G226" s="10">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -7588,7 +7600,7 @@
       <c r="F227" s="6">
         <v>24</v>
       </c>
-      <c r="G227" s="7">
+      <c r="G227" s="10">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -7615,7 +7627,7 @@
       <c r="F228" s="6">
         <v>21</v>
       </c>
-      <c r="G228" s="7">
+      <c r="G228" s="10">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -7642,7 +7654,7 @@
       <c r="F229" s="6">
         <v>28</v>
       </c>
-      <c r="G229" s="7">
+      <c r="G229" s="10">
         <f t="shared" si="3"/>
         <v>22.222222222222221</v>
       </c>
@@ -7669,7 +7681,7 @@
       <c r="F230" s="6">
         <v>0</v>
       </c>
-      <c r="G230" s="7">
+      <c r="G230" s="10">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
@@ -7696,7 +7708,7 @@
       <c r="F231" s="6">
         <v>11</v>
       </c>
-      <c r="G231" s="7">
+      <c r="G231" s="10">
         <f t="shared" si="3"/>
         <v>76.08695652173914</v>
       </c>
@@ -7723,7 +7735,7 @@
       <c r="F232" s="6">
         <v>39</v>
       </c>
-      <c r="G232" s="7">
+      <c r="G232" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7750,7 +7762,7 @@
       <c r="F233" s="6">
         <v>13</v>
       </c>
-      <c r="G233" s="7">
+      <c r="G233" s="10">
         <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
@@ -7777,7 +7789,7 @@
       <c r="F234" s="6">
         <v>31</v>
       </c>
-      <c r="G234" s="7">
+      <c r="G234" s="10">
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
@@ -7804,7 +7816,7 @@
       <c r="F235" s="6">
         <v>40</v>
       </c>
-      <c r="G235" s="7">
+      <c r="G235" s="10">
         <f t="shared" si="3"/>
         <v>6.9767441860465116</v>
       </c>
@@ -7831,7 +7843,7 @@
       <c r="F236" s="6">
         <v>38</v>
       </c>
-      <c r="G236" s="7">
+      <c r="G236" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7858,7 +7870,7 @@
       <c r="F237" s="6">
         <v>31</v>
       </c>
-      <c r="G237" s="7">
+      <c r="G237" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7885,7 +7897,7 @@
       <c r="F238" s="6">
         <v>28</v>
       </c>
-      <c r="G238" s="7">
+      <c r="G238" s="10">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
@@ -7912,7 +7924,7 @@
       <c r="F239" s="6">
         <v>37</v>
       </c>
-      <c r="G239" s="7">
+      <c r="G239" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7939,7 +7951,7 @@
       <c r="F240" s="6">
         <v>40</v>
       </c>
-      <c r="G240" s="7">
+      <c r="G240" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7966,7 +7978,7 @@
       <c r="F241" s="6">
         <v>38</v>
       </c>
-      <c r="G241" s="7">
+      <c r="G241" s="10">
         <f t="shared" si="3"/>
         <v>11.627906976744185</v>
       </c>
@@ -7988,14 +8000,14 @@
         <v>132</v>
       </c>
       <c r="E242" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F242" s="6">
-        <v>37</v>
-      </c>
-      <c r="G242" s="7">
+        <v>36</v>
+      </c>
+      <c r="G242" s="10">
         <f t="shared" si="3"/>
-        <v>2.6315789473684208</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="H242" s="6">
         <v>38</v>
@@ -8020,7 +8032,7 @@
       <c r="F243" s="6">
         <v>33</v>
       </c>
-      <c r="G243" s="7">
+      <c r="G243" s="10">
         <f t="shared" si="3"/>
         <v>10.810810810810811</v>
       </c>
@@ -8047,7 +8059,7 @@
       <c r="F244" s="6">
         <v>20</v>
       </c>
-      <c r="G244" s="7">
+      <c r="G244" s="10">
         <f t="shared" si="3"/>
         <v>25.925925925925924</v>
       </c>
@@ -8074,7 +8086,7 @@
       <c r="F245" s="6">
         <v>13</v>
       </c>
-      <c r="G245" s="7">
+      <c r="G245" s="10">
         <f t="shared" si="3"/>
         <v>43.478260869565219</v>
       </c>
@@ -8101,7 +8113,7 @@
       <c r="F246" s="6">
         <v>32</v>
       </c>
-      <c r="G246" s="7">
+      <c r="G246" s="10">
         <f t="shared" si="3"/>
         <v>3.0303030303030303</v>
       </c>
@@ -8128,7 +8140,7 @@
       <c r="F247" s="6">
         <v>20</v>
       </c>
-      <c r="G247" s="7">
+      <c r="G247" s="10">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8155,7 +8167,7 @@
       <c r="F248" s="6">
         <v>41</v>
       </c>
-      <c r="G248" s="7">
+      <c r="G248" s="10">
         <f t="shared" si="3"/>
         <v>6.8181818181818175</v>
       </c>
@@ -8182,7 +8194,7 @@
       <c r="F249" s="6">
         <v>40</v>
       </c>
-      <c r="G249" s="7">
+      <c r="G249" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8209,7 +8221,7 @@
       <c r="F250" s="6">
         <v>27</v>
       </c>
-      <c r="G250" s="7">
+      <c r="G250" s="10">
         <f t="shared" si="3"/>
         <v>3.5714285714285712</v>
       </c>
@@ -8236,7 +8248,7 @@
       <c r="F251" s="6">
         <v>34</v>
       </c>
-      <c r="G251" s="7">
+      <c r="G251" s="10">
         <f t="shared" si="3"/>
         <v>5.5555555555555554</v>
       </c>
@@ -8263,7 +8275,7 @@
       <c r="F252" s="6">
         <v>1</v>
       </c>
-      <c r="G252" s="7">
+      <c r="G252" s="10">
         <f t="shared" si="3"/>
         <v>97.222222222222214</v>
       </c>
@@ -8290,7 +8302,7 @@
       <c r="F253" s="6">
         <v>14</v>
       </c>
-      <c r="G253" s="7">
+      <c r="G253" s="10">
         <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
@@ -8317,7 +8329,7 @@
       <c r="F254" s="6">
         <v>29</v>
       </c>
-      <c r="G254" s="7">
+      <c r="G254" s="10">
         <f t="shared" si="3"/>
         <v>23.684210526315788</v>
       </c>
@@ -8344,7 +8356,7 @@
       <c r="F255" s="6">
         <v>4</v>
       </c>
-      <c r="G255" s="7">
+      <c r="G255" s="10">
         <f t="shared" si="3"/>
         <v>87.5</v>
       </c>
@@ -8371,7 +8383,7 @@
       <c r="F256" s="6">
         <v>33</v>
       </c>
-      <c r="G256" s="7">
+      <c r="G256" s="10">
         <f t="shared" si="3"/>
         <v>31.25</v>
       </c>
@@ -8398,7 +8410,7 @@
       <c r="F257" s="6">
         <v>38</v>
       </c>
-      <c r="G257" s="7">
+      <c r="G257" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8425,7 +8437,7 @@
       <c r="F258" s="6">
         <v>1</v>
       </c>
-      <c r="G258" s="7">
+      <c r="G258" s="10">
         <f t="shared" si="3"/>
         <v>96.774193548387103</v>
       </c>
@@ -8452,7 +8464,7 @@
       <c r="F259" s="6">
         <v>46</v>
       </c>
-      <c r="G259" s="7">
+      <c r="G259" s="10">
         <f t="shared" ref="G259:G304" si="4">(E259/H259)*100</f>
         <v>9.8039215686274517</v>
       </c>
@@ -8479,7 +8491,7 @@
       <c r="F260" s="6">
         <v>26</v>
       </c>
-      <c r="G260" s="7">
+      <c r="G260" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8497,7 +8509,7 @@
       <c r="C261" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D261" s="10" t="s">
+      <c r="D261" s="9" t="s">
         <v>328</v>
       </c>
       <c r="E261" s="6">
@@ -8506,7 +8518,7 @@
       <c r="F261" s="6">
         <v>25</v>
       </c>
-      <c r="G261" s="7">
+      <c r="G261" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8524,7 +8536,7 @@
       <c r="C262" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D262" s="10" t="s">
+      <c r="D262" s="9" t="s">
         <v>329</v>
       </c>
       <c r="E262" s="6">
@@ -8533,7 +8545,7 @@
       <c r="F262" s="6">
         <v>31</v>
       </c>
-      <c r="G262" s="7">
+      <c r="G262" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8560,7 +8572,7 @@
       <c r="F263" s="6">
         <v>35</v>
       </c>
-      <c r="G263" s="7">
+      <c r="G263" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8587,7 +8599,7 @@
       <c r="F264" s="6">
         <v>35</v>
       </c>
-      <c r="G264" s="7">
+      <c r="G264" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8614,7 +8626,7 @@
       <c r="F265" s="6">
         <v>37</v>
       </c>
-      <c r="G265" s="7">
+      <c r="G265" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8641,7 +8653,7 @@
       <c r="F266" s="6">
         <v>44</v>
       </c>
-      <c r="G266" s="7">
+      <c r="G266" s="10">
         <f t="shared" si="4"/>
         <v>2.2222222222222223</v>
       </c>
@@ -8668,7 +8680,7 @@
       <c r="F267" s="6">
         <v>40</v>
       </c>
-      <c r="G267" s="7">
+      <c r="G267" s="10">
         <f t="shared" si="4"/>
         <v>14.893617021276595</v>
       </c>
@@ -8695,7 +8707,7 @@
       <c r="F268" s="6">
         <v>24</v>
       </c>
-      <c r="G268" s="7">
+      <c r="G268" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8722,7 +8734,7 @@
       <c r="F269" s="6">
         <v>34</v>
       </c>
-      <c r="G269" s="7">
+      <c r="G269" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8740,16 +8752,16 @@
       <c r="C270" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D270" s="10" t="s">
+      <c r="D270" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E270" s="9">
+      <c r="E270" s="8">
         <v>0</v>
       </c>
       <c r="F270" s="6">
         <v>35</v>
       </c>
-      <c r="G270" s="7">
+      <c r="G270" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8767,16 +8779,16 @@
       <c r="C271" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D271" s="10" t="s">
+      <c r="D271" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E271" s="9">
+      <c r="E271" s="8">
         <v>0</v>
       </c>
       <c r="F271" s="6">
         <v>41</v>
       </c>
-      <c r="G271" s="7">
+      <c r="G271" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8794,16 +8806,16 @@
       <c r="C272" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D272" s="10" t="s">
+      <c r="D272" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E272" s="9">
+      <c r="E272" s="8">
         <v>1</v>
       </c>
       <c r="F272" s="6">
         <v>39</v>
       </c>
-      <c r="G272" s="7">
+      <c r="G272" s="10">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
@@ -8830,7 +8842,7 @@
       <c r="F273" s="6">
         <v>31</v>
       </c>
-      <c r="G273" s="7">
+      <c r="G273" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8857,7 +8869,7 @@
       <c r="F274" s="6">
         <v>22</v>
       </c>
-      <c r="G274" s="7">
+      <c r="G274" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8884,7 +8896,7 @@
       <c r="F275" s="6">
         <v>30</v>
       </c>
-      <c r="G275" s="7">
+      <c r="G275" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8911,7 +8923,7 @@
       <c r="F276" s="6">
         <v>36</v>
       </c>
-      <c r="G276" s="7">
+      <c r="G276" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8938,7 +8950,7 @@
       <c r="F277" s="6">
         <v>25</v>
       </c>
-      <c r="G277" s="7">
+      <c r="G277" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8965,7 +8977,7 @@
       <c r="F278" s="6">
         <v>22</v>
       </c>
-      <c r="G278" s="7">
+      <c r="G278" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8986,13 +8998,13 @@
       <c r="D279" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E279" s="9">
+      <c r="E279" s="8">
         <v>0</v>
       </c>
       <c r="F279" s="6">
         <v>18</v>
       </c>
-      <c r="G279" s="7">
+      <c r="G279" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9013,13 +9025,13 @@
       <c r="D280" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E280" s="9">
+      <c r="E280" s="8">
         <v>0</v>
       </c>
       <c r="F280" s="6">
         <v>31</v>
       </c>
-      <c r="G280" s="7">
+      <c r="G280" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9040,13 +9052,13 @@
       <c r="D281" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E281" s="9">
+      <c r="E281" s="8">
         <v>0</v>
       </c>
       <c r="F281" s="6">
         <v>35</v>
       </c>
-      <c r="G281" s="7">
+      <c r="G281" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9067,13 +9079,13 @@
       <c r="D282" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E282" s="9">
+      <c r="E282" s="8">
         <v>0</v>
       </c>
       <c r="F282" s="6">
         <v>35</v>
       </c>
-      <c r="G282" s="7">
+      <c r="G282" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9094,13 +9106,13 @@
       <c r="D283" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E283" s="9">
+      <c r="E283" s="8">
         <v>0</v>
       </c>
       <c r="F283" s="6">
         <v>36</v>
       </c>
-      <c r="G283" s="7">
+      <c r="G283" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9121,13 +9133,13 @@
       <c r="D284" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E284" s="9">
+      <c r="E284" s="8">
         <v>0</v>
       </c>
       <c r="F284" s="6">
         <v>35</v>
       </c>
-      <c r="G284" s="7">
+      <c r="G284" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9148,13 +9160,13 @@
       <c r="D285" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E285" s="9">
+      <c r="E285" s="8">
         <v>0</v>
       </c>
       <c r="F285" s="6">
         <v>24</v>
       </c>
-      <c r="G285" s="7">
+      <c r="G285" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9175,13 +9187,13 @@
       <c r="D286" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E286" s="9">
+      <c r="E286" s="8">
         <v>0</v>
       </c>
       <c r="F286" s="6">
         <v>12</v>
       </c>
-      <c r="G286" s="7">
+      <c r="G286" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9208,7 +9220,7 @@
       <c r="F287" s="6">
         <v>4</v>
       </c>
-      <c r="G287" s="7">
+      <c r="G287" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9235,7 +9247,7 @@
       <c r="F288" s="6">
         <v>1</v>
       </c>
-      <c r="G288" s="7">
+      <c r="G288" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9262,7 +9274,7 @@
       <c r="F289" s="6">
         <v>1</v>
       </c>
-      <c r="G289" s="7">
+      <c r="G289" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9289,7 +9301,7 @@
       <c r="F290" s="6">
         <v>31</v>
       </c>
-      <c r="G290" s="7">
+      <c r="G290" s="10">
         <f t="shared" si="4"/>
         <v>3.125</v>
       </c>
@@ -9316,7 +9328,7 @@
       <c r="F291" s="6">
         <v>24</v>
       </c>
-      <c r="G291" s="7">
+      <c r="G291" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9343,7 +9355,7 @@
       <c r="F292" s="6">
         <v>31</v>
       </c>
-      <c r="G292" s="7">
+      <c r="G292" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9365,14 +9377,14 @@
         <v>185</v>
       </c>
       <c r="E293" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293" s="6">
-        <v>35</v>
-      </c>
-      <c r="G293" s="7">
+        <v>34</v>
+      </c>
+      <c r="G293" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="H293" s="6">
         <v>35</v>
@@ -9397,7 +9409,7 @@
       <c r="F294" s="6">
         <v>39</v>
       </c>
-      <c r="G294" s="7">
+      <c r="G294" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9424,7 +9436,7 @@
       <c r="F295" s="6">
         <v>40</v>
       </c>
-      <c r="G295" s="7">
+      <c r="G295" s="10">
         <f t="shared" si="4"/>
         <v>2.4390243902439024</v>
       </c>
@@ -9451,7 +9463,7 @@
       <c r="F296" s="6">
         <v>22</v>
       </c>
-      <c r="G296" s="7">
+      <c r="G296" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9478,7 +9490,7 @@
       <c r="F297" s="6">
         <v>36</v>
       </c>
-      <c r="G297" s="7">
+      <c r="G297" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9505,7 +9517,7 @@
       <c r="F298" s="6">
         <v>2</v>
       </c>
-      <c r="G298" s="7">
+      <c r="G298" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9532,7 +9544,7 @@
       <c r="F299" s="6">
         <v>35</v>
       </c>
-      <c r="G299" s="7">
+      <c r="G299" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9559,7 +9571,7 @@
       <c r="F300" s="6">
         <v>30</v>
       </c>
-      <c r="G300" s="7">
+      <c r="G300" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9586,7 +9598,7 @@
       <c r="F301" s="6">
         <v>19</v>
       </c>
-      <c r="G301" s="7">
+      <c r="G301" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9613,7 +9625,7 @@
       <c r="F302" s="6">
         <v>20</v>
       </c>
-      <c r="G302" s="7">
+      <c r="G302" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9640,7 +9652,7 @@
       <c r="F303" s="6">
         <v>18</v>
       </c>
-      <c r="G303" s="7">
+      <c r="G303" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9667,7 +9679,7 @@
       <c r="F304" s="6">
         <v>15</v>
       </c>
-      <c r="G304" s="7">
+      <c r="G304" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
